--- a/Formato ACR - limpio.xlsx
+++ b/Formato ACR - limpio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\Proyecto ACR\aplicativo-acr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\Proyecto ACR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C01766-2DB0-4678-8DBC-9316EDCE28BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625FBD6-FE18-4E26-9046-A9351A43E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
   <si>
     <t>ACCIONES CORRECTIVAS Y DE MEJORA</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t>Causa 5</t>
+  </si>
+  <si>
+    <t>Horas</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1032,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1729,28 +1732,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -1808,12 +1789,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1946,326 +1940,356 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2288,18 +2312,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2327,35 +2339,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2844,8 +2832,8 @@
   </sheetPr>
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:Z8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F53" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="X60" sqref="X60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2866,7 +2854,7 @@
     <col min="21" max="21" width="10.44140625" style="6" customWidth="1"/>
     <col min="22" max="22" width="14" style="6" customWidth="1"/>
     <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="8.44140625" style="6" customWidth="1"/>
     <col min="25" max="25" width="9.6640625" style="6" customWidth="1"/>
     <col min="26" max="26" width="26" style="6" customWidth="1"/>
     <col min="27" max="27" width="11.44140625" style="6"/>
@@ -2875,64 +2863,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="92" t="s">
+      <c r="A1" s="131"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="106" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="134"/>
+      <c r="L1" s="134"/>
+      <c r="M1" s="134"/>
+      <c r="N1" s="134"/>
+      <c r="O1" s="134"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
     </row>
     <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
     </row>
     <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
@@ -2963,78 +2951,78 @@
       <c r="Z3" s="46"/>
     </row>
     <row r="4" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="113" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="117" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="113"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="113" t="s">
+      <c r="H4" s="117"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="113" t="s">
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="113"/>
-      <c r="U4" s="113"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="114" t="s">
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="118"/>
+      <c r="Y4" s="119"/>
+      <c r="Z4" s="122"/>
     </row>
     <row r="5" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="120" t="s">
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="122"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="120" t="s">
+      <c r="H5" s="125"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
+      <c r="K5" s="128"/>
+      <c r="L5" s="125" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="120"/>
-      <c r="N5" s="120"/>
-      <c r="O5" s="109"/>
-      <c r="P5" s="109"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="109"/>
-      <c r="S5" s="120" t="s">
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="113"/>
+      <c r="Q5" s="113"/>
+      <c r="R5" s="113"/>
+      <c r="S5" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="120"/>
-      <c r="U5" s="120"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="117"/>
-      <c r="Z5" s="85"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="126"/>
+      <c r="W5" s="126"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="123"/>
     </row>
     <row r="6" spans="1:26" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -3064,167 +3052,167 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="73"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="142"/>
+      <c r="R7" s="142"/>
+      <c r="S7" s="142"/>
+      <c r="T7" s="142"/>
+      <c r="U7" s="142"/>
+      <c r="V7" s="142"/>
+      <c r="W7" s="142"/>
+      <c r="X7" s="142"/>
+      <c r="Y7" s="142"/>
+      <c r="Z7" s="143"/>
     </row>
     <row r="8" spans="1:26" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="82"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="153"/>
     </row>
     <row r="9" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="145"/>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="145"/>
+      <c r="O9" s="145"/>
+      <c r="P9" s="145"/>
+      <c r="Q9" s="145"/>
+      <c r="R9" s="145"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="145"/>
+      <c r="U9" s="145"/>
+      <c r="V9" s="145"/>
+      <c r="W9" s="145"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="145"/>
+      <c r="Z9" s="146"/>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
+      <c r="A10" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="124" t="s">
+      <c r="B10" s="130"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="130"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="124"/>
-      <c r="L10" s="124"/>
-      <c r="M10" s="124" t="s">
+      <c r="K10" s="130"/>
+      <c r="L10" s="130"/>
+      <c r="M10" s="130" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="124"/>
-      <c r="O10" s="124" t="s">
+      <c r="N10" s="130"/>
+      <c r="O10" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="124"/>
-      <c r="Q10" s="124"/>
-      <c r="R10" s="124" t="s">
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+      <c r="R10" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="124"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="124"/>
-      <c r="V10" s="124"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="124"/>
-      <c r="Y10" s="124" t="s">
+      <c r="S10" s="130"/>
+      <c r="T10" s="130"/>
+      <c r="U10" s="130"/>
+      <c r="V10" s="130"/>
+      <c r="W10" s="130"/>
+      <c r="X10" s="130"/>
+      <c r="Y10" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="Z10" s="125"/>
+      <c r="Z10" s="138"/>
     </row>
     <row r="11" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="123"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
-      <c r="O11" s="124"/>
-      <c r="P11" s="124"/>
-      <c r="Q11" s="124"/>
-      <c r="R11" s="124" t="s">
+      <c r="A11" s="129"/>
+      <c r="B11" s="130"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
+      <c r="M11" s="130"/>
+      <c r="N11" s="130"/>
+      <c r="O11" s="130"/>
+      <c r="P11" s="130"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="124"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="124"/>
-      <c r="V11" s="124" t="s">
+      <c r="S11" s="130"/>
+      <c r="T11" s="130"/>
+      <c r="U11" s="130"/>
+      <c r="V11" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="124"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="125"/>
+      <c r="W11" s="130"/>
+      <c r="X11" s="130"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="138"/>
     </row>
     <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="60"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="52"/>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
@@ -3245,14 +3233,14 @@
       <c r="S12" s="52"/>
       <c r="T12" s="52"/>
       <c r="U12" s="52"/>
-      <c r="V12" s="126"/>
-      <c r="W12" s="126"/>
-      <c r="X12" s="126"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="186"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="56"/>
     </row>
     <row r="13" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="52"/>
       <c r="C13" s="52"/>
       <c r="D13" s="52"/>
@@ -3273,14 +3261,14 @@
       <c r="S13" s="52"/>
       <c r="T13" s="52"/>
       <c r="U13" s="52"/>
-      <c r="V13" s="126"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="126"/>
-      <c r="Y13" s="185"/>
-      <c r="Z13" s="186"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
     </row>
     <row r="14" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="52"/>
       <c r="C14" s="52"/>
       <c r="D14" s="52"/>
@@ -3301,14 +3289,14 @@
       <c r="S14" s="52"/>
       <c r="T14" s="52"/>
       <c r="U14" s="52"/>
-      <c r="V14" s="126"/>
-      <c r="W14" s="126"/>
-      <c r="X14" s="126"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="186"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
     </row>
     <row r="15" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="60"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="52"/>
       <c r="C15" s="52"/>
       <c r="D15" s="52"/>
@@ -3329,14 +3317,14 @@
       <c r="S15" s="52"/>
       <c r="T15" s="52"/>
       <c r="U15" s="52"/>
-      <c r="V15" s="126"/>
-      <c r="W15" s="126"/>
-      <c r="X15" s="126"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="186"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="56"/>
     </row>
     <row r="16" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -3357,14 +3345,14 @@
       <c r="S16" s="52"/>
       <c r="T16" s="52"/>
       <c r="U16" s="52"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="185"/>
-      <c r="Z16" s="186"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="56"/>
     </row>
     <row r="17" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
       <c r="D17" s="52"/>
@@ -3385,14 +3373,14 @@
       <c r="S17" s="52"/>
       <c r="T17" s="52"/>
       <c r="U17" s="52"/>
-      <c r="V17" s="126"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="126"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="186"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
     </row>
     <row r="18" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -3413,14 +3401,14 @@
       <c r="S18" s="52"/>
       <c r="T18" s="52"/>
       <c r="U18" s="52"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="126"/>
-      <c r="X18" s="126"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="186"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="56"/>
     </row>
     <row r="19" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -3441,14 +3429,14 @@
       <c r="S19" s="52"/>
       <c r="T19" s="52"/>
       <c r="U19" s="52"/>
-      <c r="V19" s="126"/>
-      <c r="W19" s="126"/>
-      <c r="X19" s="126"/>
-      <c r="Y19" s="185"/>
-      <c r="Z19" s="186"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="60"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -3469,14 +3457,14 @@
       <c r="S20" s="52"/>
       <c r="T20" s="52"/>
       <c r="U20" s="52"/>
-      <c r="V20" s="126"/>
-      <c r="W20" s="126"/>
-      <c r="X20" s="126"/>
-      <c r="Y20" s="185"/>
-      <c r="Z20" s="186"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
     </row>
     <row r="21" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -3497,14 +3485,14 @@
       <c r="S21" s="52"/>
       <c r="T21" s="52"/>
       <c r="U21" s="52"/>
-      <c r="V21" s="126"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="126"/>
-      <c r="Y21" s="185"/>
-      <c r="Z21" s="186"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="56"/>
     </row>
     <row r="22" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -3525,14 +3513,14 @@
       <c r="S22" s="52"/>
       <c r="T22" s="52"/>
       <c r="U22" s="52"/>
-      <c r="V22" s="126"/>
-      <c r="W22" s="126"/>
-      <c r="X22" s="126"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="186"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="56"/>
     </row>
     <row r="23" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
@@ -3553,14 +3541,14 @@
       <c r="S23" s="52"/>
       <c r="T23" s="52"/>
       <c r="U23" s="52"/>
-      <c r="V23" s="126"/>
-      <c r="W23" s="126"/>
-      <c r="X23" s="126"/>
-      <c r="Y23" s="185"/>
-      <c r="Z23" s="186"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="54"/>
+      <c r="X23" s="54"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
     </row>
     <row r="24" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -3581,14 +3569,14 @@
       <c r="S24" s="52"/>
       <c r="T24" s="52"/>
       <c r="U24" s="52"/>
-      <c r="V24" s="126"/>
-      <c r="W24" s="126"/>
-      <c r="X24" s="126"/>
-      <c r="Y24" s="185"/>
-      <c r="Z24" s="186"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="54"/>
+      <c r="X24" s="54"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="56"/>
     </row>
     <row r="25" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="60"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
       <c r="D25" s="52"/>
@@ -3609,14 +3597,14 @@
       <c r="S25" s="52"/>
       <c r="T25" s="52"/>
       <c r="U25" s="52"/>
-      <c r="V25" s="126"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="126"/>
-      <c r="Y25" s="185"/>
-      <c r="Z25" s="186"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="54"/>
+      <c r="X25" s="54"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
     </row>
     <row r="26" spans="1:26" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="60"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -3637,84 +3625,84 @@
       <c r="S26" s="52"/>
       <c r="T26" s="52"/>
       <c r="U26" s="52"/>
-      <c r="V26" s="126"/>
-      <c r="W26" s="126"/>
-      <c r="X26" s="126"/>
-      <c r="Y26" s="185"/>
-      <c r="Z26" s="186"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="54"/>
+      <c r="X26" s="54"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
     </row>
     <row r="27" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="148"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-      <c r="N27" s="149"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="149"/>
-      <c r="S27" s="149"/>
-      <c r="T27" s="149"/>
-      <c r="U27" s="149"/>
-      <c r="V27" s="149"/>
-      <c r="W27" s="149"/>
-      <c r="X27" s="149"/>
-      <c r="Y27" s="149"/>
-      <c r="Z27" s="150"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="85"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="85"/>
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+      <c r="U27" s="85"/>
+      <c r="V27" s="85"/>
+      <c r="W27" s="85"/>
+      <c r="X27" s="85"/>
+      <c r="Y27" s="85"/>
+      <c r="Z27" s="86"/>
     </row>
     <row r="28" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="78"/>
-      <c r="Q28" s="78"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
-      <c r="U28" s="78"/>
-      <c r="V28" s="78"/>
-      <c r="W28" s="78"/>
-      <c r="X28" s="78"/>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="79"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+      <c r="N28" s="148"/>
+      <c r="O28" s="148"/>
+      <c r="P28" s="148"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="148"/>
+      <c r="S28" s="148"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="148"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="149"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="151" t="s">
+      <c r="A30" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="57" t="s">
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
@@ -3735,46 +3723,46 @@
       <c r="W30" s="52"/>
       <c r="X30" s="52"/>
       <c r="Y30" s="52"/>
-      <c r="Z30" s="56"/>
+      <c r="Z30" s="150"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="153"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="86" t="s">
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
-      <c r="O31" s="87"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="87"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="88"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="58"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="59"/>
     </row>
     <row r="32" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="153"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="57" t="s">
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="57"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -3795,128 +3783,128 @@
       <c r="W32" s="52"/>
       <c r="X32" s="52"/>
       <c r="Y32" s="52"/>
-      <c r="Z32" s="56"/>
+      <c r="Z32" s="150"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="153"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
-      <c r="O33" s="87"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="87"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="88"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="58"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="59"/>
     </row>
     <row r="34" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="153"/>
-      <c r="B34" s="154"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="104" t="s">
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="83"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="64"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="153"/>
-      <c r="B35" s="154"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="87"/>
-      <c r="O35" s="87"/>
-      <c r="P35" s="87"/>
-      <c r="Q35" s="87"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="87"/>
-      <c r="T35" s="87"/>
-      <c r="U35" s="87"/>
-      <c r="V35" s="87"/>
-      <c r="W35" s="87"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="87"/>
-      <c r="Z35" s="88"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="58"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="58"/>
+      <c r="Z35" s="59"/>
     </row>
     <row r="36" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="153"/>
-      <c r="B36" s="154"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="104" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
-      <c r="V36" s="55"/>
-      <c r="W36" s="55"/>
-      <c r="X36" s="55"/>
-      <c r="Y36" s="55"/>
-      <c r="Z36" s="83"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="64"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="153"/>
-      <c r="B37" s="154"/>
-      <c r="C37" s="154"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -3942,73 +3930,73 @@
       <c r="Z37" s="49"/>
     </row>
     <row r="38" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="104" t="s">
+      <c r="A38" s="69"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="70"/>
+      <c r="D38" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="105"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="83"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="64"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="87"/>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="87"/>
-      <c r="K39" s="87"/>
-      <c r="L39" s="87"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="87"/>
-      <c r="O39" s="87"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="87"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="87"/>
-      <c r="T39" s="87"/>
-      <c r="U39" s="87"/>
-      <c r="V39" s="87"/>
-      <c r="W39" s="87"/>
-      <c r="X39" s="87"/>
-      <c r="Y39" s="87"/>
-      <c r="Z39" s="88"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="58"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="58"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="58"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="58"/>
+      <c r="Z39" s="59"/>
     </row>
     <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="57" t="s">
+      <c r="B40" s="83"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="57"/>
+      <c r="E40" s="80"/>
       <c r="F40" s="52"/>
       <c r="G40" s="52"/>
       <c r="H40" s="52"/>
@@ -4029,12 +4017,12 @@
       <c r="W40" s="52"/>
       <c r="X40" s="52"/>
       <c r="Y40" s="52"/>
-      <c r="Z40" s="56"/>
+      <c r="Z40" s="150"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="107"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -4060,13 +4048,13 @@
       <c r="Z41" s="37"/>
     </row>
     <row r="42" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="57" t="s">
+      <c r="A42" s="83"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="57"/>
+      <c r="E42" s="80"/>
       <c r="F42" s="52"/>
       <c r="G42" s="52"/>
       <c r="H42" s="52"/>
@@ -4087,102 +4075,102 @@
       <c r="W42" s="52"/>
       <c r="X42" s="52"/>
       <c r="Y42" s="52"/>
-      <c r="Z42" s="56"/>
+      <c r="Z42" s="150"/>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107"/>
-      <c r="B43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="87"/>
-      <c r="O43" s="87"/>
-      <c r="P43" s="87"/>
-      <c r="Q43" s="87"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="87"/>
-      <c r="T43" s="87"/>
-      <c r="U43" s="87"/>
-      <c r="V43" s="87"/>
-      <c r="W43" s="87"/>
-      <c r="X43" s="87"/>
-      <c r="Y43" s="87"/>
-      <c r="Z43" s="88"/>
+      <c r="A43" s="83"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
+      <c r="K43" s="58"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
+      <c r="P43" s="58"/>
+      <c r="Q43" s="58"/>
+      <c r="R43" s="58"/>
+      <c r="S43" s="58"/>
+      <c r="T43" s="58"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="58"/>
+      <c r="W43" s="58"/>
+      <c r="X43" s="58"/>
+      <c r="Y43" s="58"/>
+      <c r="Z43" s="59"/>
     </row>
     <row r="44" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="107"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="57" t="s">
+      <c r="A44" s="83"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="84"/>
-      <c r="R44" s="84"/>
-      <c r="S44" s="84"/>
-      <c r="T44" s="84"/>
-      <c r="U44" s="84"/>
-      <c r="V44" s="84"/>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="85"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="126"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
+      <c r="L44" s="126"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="126"/>
+      <c r="P44" s="126"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="126"/>
+      <c r="S44" s="126"/>
+      <c r="T44" s="126"/>
+      <c r="U44" s="126"/>
+      <c r="V44" s="126"/>
+      <c r="W44" s="126"/>
+      <c r="X44" s="126"/>
+      <c r="Y44" s="126"/>
+      <c r="Z44" s="123"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="87"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="87"/>
-      <c r="O45" s="87"/>
-      <c r="P45" s="87"/>
-      <c r="Q45" s="87"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="87"/>
-      <c r="T45" s="87"/>
-      <c r="U45" s="87"/>
-      <c r="V45" s="87"/>
-      <c r="W45" s="87"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="87"/>
-      <c r="Z45" s="88"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="58"/>
+      <c r="R45" s="58"/>
+      <c r="S45" s="58"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="58"/>
+      <c r="W45" s="58"/>
+      <c r="X45" s="58"/>
+      <c r="Y45" s="58"/>
+      <c r="Z45" s="59"/>
     </row>
     <row r="46" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="57" t="s">
+      <c r="A46" s="83"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="80"/>
       <c r="F46" s="52"/>
       <c r="G46" s="52"/>
       <c r="H46" s="52"/>
@@ -4206,41 +4194,41 @@
       <c r="Z46" s="52"/>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="146"/>
-      <c r="N47" s="146"/>
-      <c r="O47" s="146"/>
-      <c r="P47" s="146"/>
-      <c r="Q47" s="146"/>
-      <c r="R47" s="146"/>
-      <c r="S47" s="146"/>
-      <c r="T47" s="146"/>
-      <c r="U47" s="146"/>
-      <c r="V47" s="146"/>
-      <c r="W47" s="146"/>
-      <c r="X47" s="146"/>
-      <c r="Y47" s="146"/>
-      <c r="Z47" s="147"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="82"/>
     </row>
     <row r="48" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="B48" s="107"/>
-      <c r="C48" s="107"/>
-      <c r="D48" s="57" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="80"/>
       <c r="F48" s="52"/>
       <c r="G48" s="52"/>
       <c r="H48" s="52"/>
@@ -4265,728 +4253,732 @@
     </row>
     <row r="49" spans="1:28" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="59"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="144" t="s">
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="U50" s="144"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="144"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="59"/>
-      <c r="Z50" s="145"/>
+      <c r="U50" s="71"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="71"/>
+      <c r="X50" s="72"/>
+      <c r="Y50" s="72"/>
+      <c r="Z50" s="73"/>
     </row>
     <row r="51" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100" t="s">
+      <c r="A51" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="101"/>
-      <c r="E51" s="100" t="s">
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="100" t="s">
+      <c r="F51" s="75"/>
+      <c r="G51" s="75"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="K51" s="101"/>
-      <c r="L51" s="100" t="s">
+      <c r="K51" s="76"/>
+      <c r="L51" s="74" t="s">
         <v>129</v>
       </c>
-      <c r="M51" s="101"/>
-      <c r="N51" s="100" t="s">
+      <c r="M51" s="76"/>
+      <c r="N51" s="74" t="s">
         <v>133</v>
       </c>
-      <c r="O51" s="101"/>
-      <c r="P51" s="136" t="s">
+      <c r="O51" s="76"/>
+      <c r="P51" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="137"/>
-      <c r="R51" s="137"/>
-      <c r="S51" s="137"/>
-      <c r="T51" s="96" t="s">
+      <c r="Q51" s="109"/>
+      <c r="R51" s="109"/>
+      <c r="S51" s="109"/>
+      <c r="T51" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="U51" s="96"/>
-      <c r="V51" s="97" t="s">
+      <c r="U51" s="136"/>
+      <c r="V51" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="W51" s="95" t="s">
+      <c r="W51" s="183" t="s">
         <v>35</v>
       </c>
       <c r="X51" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="Y51" s="131"/>
-      <c r="Z51" s="100" t="s">
+      <c r="Y51" s="130"/>
+      <c r="Z51" s="74" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="102"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="98"/>
-      <c r="I52" s="98"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="103"/>
-      <c r="P52" s="99" t="s">
+      <c r="A52" s="77"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
+      <c r="D52" s="79"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="78"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="Q52" s="99"/>
-      <c r="R52" s="99" t="s">
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="S52" s="138"/>
-      <c r="T52" s="96"/>
-      <c r="U52" s="96"/>
-      <c r="V52" s="98"/>
-      <c r="W52" s="95"/>
-      <c r="X52" s="132"/>
-      <c r="Y52" s="133"/>
-      <c r="Z52" s="102"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="136"/>
+      <c r="U52" s="136"/>
+      <c r="V52" s="78"/>
+      <c r="W52" s="183"/>
+      <c r="X52" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y52" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z52" s="77"/>
     </row>
     <row r="53" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="60"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
       <c r="D53" s="52"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="50"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="182"/>
-      <c r="O53" s="182"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="104"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="104"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
       <c r="P53" s="53"/>
       <c r="Q53" s="53"/>
       <c r="R53" s="53"/>
       <c r="S53" s="53"/>
-      <c r="T53" s="54"/>
-      <c r="U53" s="54"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="87"/>
       <c r="V53" s="40"/>
       <c r="W53" s="39"/>
-      <c r="X53" s="183"/>
+      <c r="X53" s="184"/>
       <c r="Y53" s="184"/>
       <c r="Z53" s="47"/>
       <c r="AB53" s="41"/>
     </row>
     <row r="54" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="52"/>
       <c r="C54" s="52"/>
       <c r="D54" s="52"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="55"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="51"/>
-      <c r="N54" s="182"/>
-      <c r="O54" s="182"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="104"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
       <c r="P54" s="53"/>
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
       <c r="S54" s="53"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="87"/>
       <c r="V54" s="40"/>
       <c r="W54" s="39"/>
-      <c r="X54" s="183"/>
+      <c r="X54" s="184"/>
       <c r="Y54" s="184"/>
       <c r="Z54" s="47"/>
       <c r="AB54" s="41"/>
     </row>
     <row r="55" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="60"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="52"/>
       <c r="C55" s="52"/>
       <c r="D55" s="52"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="55"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="55"/>
-      <c r="J55" s="50"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="50"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="182"/>
-      <c r="O55" s="182"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
       <c r="P55" s="53"/>
       <c r="Q55" s="53"/>
       <c r="R55" s="53"/>
       <c r="S55" s="53"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
       <c r="V55" s="40"/>
       <c r="W55" s="39"/>
-      <c r="X55" s="183"/>
+      <c r="X55" s="184"/>
       <c r="Y55" s="184"/>
       <c r="Z55" s="47"/>
       <c r="AB55" s="41"/>
     </row>
     <row r="56" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="60"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="52"/>
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="55"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="50"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="50"/>
-      <c r="M56" s="51"/>
-      <c r="N56" s="182"/>
-      <c r="O56" s="182"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
       <c r="P56" s="53"/>
       <c r="Q56" s="53"/>
       <c r="R56" s="53"/>
       <c r="S56" s="53"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="87"/>
       <c r="V56" s="40"/>
       <c r="W56" s="39"/>
-      <c r="X56" s="183"/>
+      <c r="X56" s="184"/>
       <c r="Y56" s="184"/>
       <c r="Z56" s="47"/>
       <c r="AB56" s="41"/>
     </row>
     <row r="57" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="60"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="52"/>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="50"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="50"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="182"/>
-      <c r="O57" s="182"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="62"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
       <c r="P57" s="53"/>
       <c r="Q57" s="53"/>
       <c r="R57" s="53"/>
       <c r="S57" s="53"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="87"/>
       <c r="V57" s="40"/>
       <c r="W57" s="39"/>
-      <c r="X57" s="183"/>
+      <c r="X57" s="184"/>
       <c r="Y57" s="184"/>
       <c r="Z57" s="47"/>
       <c r="AB57" s="41"/>
     </row>
     <row r="58" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="60"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="52"/>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="50"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="182"/>
-      <c r="O58" s="182"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
       <c r="P58" s="53"/>
       <c r="Q58" s="53"/>
       <c r="R58" s="53"/>
       <c r="S58" s="53"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="87"/>
       <c r="V58" s="40"/>
       <c r="W58" s="39"/>
-      <c r="X58" s="183"/>
+      <c r="X58" s="184"/>
       <c r="Y58" s="184"/>
       <c r="Z58" s="47"/>
       <c r="AB58" s="41"/>
     </row>
     <row r="59" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="60"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="52"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="51"/>
-      <c r="N59" s="182"/>
-      <c r="O59" s="182"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="62"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
       <c r="P59" s="53"/>
       <c r="Q59" s="53"/>
       <c r="R59" s="53"/>
       <c r="S59" s="53"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="87"/>
       <c r="V59" s="40"/>
       <c r="W59" s="39"/>
-      <c r="X59" s="183"/>
+      <c r="X59" s="184"/>
       <c r="Y59" s="184"/>
       <c r="Z59" s="47"/>
       <c r="AB59" s="41"/>
     </row>
     <row r="60" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="60"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="52"/>
       <c r="C60" s="52"/>
       <c r="D60" s="52"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="182"/>
-      <c r="O60" s="182"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
       <c r="P60" s="53"/>
       <c r="Q60" s="53"/>
       <c r="R60" s="53"/>
       <c r="S60" s="53"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
+      <c r="T60" s="87"/>
+      <c r="U60" s="87"/>
       <c r="V60" s="40"/>
       <c r="W60" s="39"/>
-      <c r="X60" s="183"/>
+      <c r="X60" s="184"/>
       <c r="Y60" s="184"/>
       <c r="Z60" s="47"/>
       <c r="AB60" s="41"/>
     </row>
     <row r="61" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="60"/>
+      <c r="A61" s="51"/>
       <c r="B61" s="52"/>
       <c r="C61" s="52"/>
       <c r="D61" s="52"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="50"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="50"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="182"/>
-      <c r="O61" s="182"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="104"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
       <c r="P61" s="53"/>
       <c r="Q61" s="53"/>
       <c r="R61" s="53"/>
       <c r="S61" s="53"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
+      <c r="T61" s="87"/>
+      <c r="U61" s="87"/>
       <c r="V61" s="40"/>
       <c r="W61" s="39"/>
-      <c r="X61" s="183"/>
+      <c r="X61" s="184"/>
       <c r="Y61" s="184"/>
       <c r="Z61" s="47"/>
       <c r="AB61" s="41"/>
     </row>
     <row r="62" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="60"/>
+      <c r="A62" s="51"/>
       <c r="B62" s="52"/>
       <c r="C62" s="52"/>
       <c r="D62" s="52"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="50"/>
-      <c r="K62" s="51"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="51"/>
-      <c r="N62" s="182"/>
-      <c r="O62" s="182"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="104"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
       <c r="P62" s="53"/>
       <c r="Q62" s="53"/>
       <c r="R62" s="53"/>
       <c r="S62" s="53"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
+      <c r="T62" s="87"/>
+      <c r="U62" s="87"/>
       <c r="V62" s="40"/>
       <c r="W62" s="39"/>
-      <c r="X62" s="183"/>
+      <c r="X62" s="184"/>
       <c r="Y62" s="184"/>
       <c r="Z62" s="47"/>
       <c r="AB62" s="41"/>
     </row>
     <row r="63" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="60"/>
+      <c r="A63" s="51"/>
       <c r="B63" s="52"/>
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="50"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="51"/>
-      <c r="N63" s="182"/>
-      <c r="O63" s="182"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="104"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="104"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="105"/>
       <c r="P63" s="53"/>
       <c r="Q63" s="53"/>
       <c r="R63" s="53"/>
       <c r="S63" s="53"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
+      <c r="T63" s="87"/>
+      <c r="U63" s="87"/>
       <c r="V63" s="40"/>
       <c r="W63" s="39"/>
-      <c r="X63" s="183"/>
+      <c r="X63" s="184"/>
       <c r="Y63" s="184"/>
       <c r="Z63" s="47"/>
       <c r="AB63" s="41"/>
     </row>
     <row r="64" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="60"/>
+      <c r="A64" s="51"/>
       <c r="B64" s="52"/>
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="50"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="50"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="182"/>
-      <c r="O64" s="182"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="104"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="104"/>
+      <c r="N64" s="105"/>
+      <c r="O64" s="105"/>
       <c r="P64" s="53"/>
       <c r="Q64" s="53"/>
       <c r="R64" s="53"/>
       <c r="S64" s="53"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
+      <c r="T64" s="87"/>
+      <c r="U64" s="87"/>
       <c r="V64" s="40"/>
       <c r="W64" s="39"/>
-      <c r="X64" s="183"/>
+      <c r="X64" s="184"/>
       <c r="Y64" s="184"/>
       <c r="Z64" s="47"/>
       <c r="AB64" s="41"/>
     </row>
     <row r="65" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="60"/>
+      <c r="A65" s="51"/>
       <c r="B65" s="52"/>
       <c r="C65" s="52"/>
       <c r="D65" s="52"/>
-      <c r="E65" s="50"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="50"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="50"/>
-      <c r="M65" s="51"/>
-      <c r="N65" s="182"/>
-      <c r="O65" s="182"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="104"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="104"/>
+      <c r="N65" s="105"/>
+      <c r="O65" s="105"/>
       <c r="P65" s="53"/>
       <c r="Q65" s="53"/>
       <c r="R65" s="53"/>
       <c r="S65" s="53"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
+      <c r="T65" s="87"/>
+      <c r="U65" s="87"/>
       <c r="V65" s="40"/>
       <c r="W65" s="39"/>
-      <c r="X65" s="183"/>
+      <c r="X65" s="184"/>
       <c r="Y65" s="184"/>
       <c r="Z65" s="47"/>
       <c r="AB65" s="41"/>
     </row>
     <row r="66" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="61"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="50"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="51"/>
-      <c r="N66" s="183"/>
-      <c r="O66" s="184"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="64"/>
-      <c r="U66" s="65"/>
+      <c r="A66" s="155"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="104"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="104"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="100"/>
+      <c r="P66" s="156"/>
+      <c r="Q66" s="157"/>
+      <c r="R66" s="156"/>
+      <c r="S66" s="157"/>
+      <c r="T66" s="158"/>
+      <c r="U66" s="159"/>
       <c r="V66" s="40"/>
       <c r="W66" s="39"/>
-      <c r="X66" s="183"/>
+      <c r="X66" s="184"/>
       <c r="Y66" s="184"/>
       <c r="Z66" s="47"/>
       <c r="AB66" s="41"/>
     </row>
     <row r="67" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="60"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="52"/>
       <c r="C67" s="52"/>
       <c r="D67" s="52"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="55"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="182"/>
-      <c r="O67" s="182"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="104"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
       <c r="P67" s="53"/>
       <c r="Q67" s="53"/>
       <c r="R67" s="53"/>
       <c r="S67" s="53"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
+      <c r="T67" s="87"/>
+      <c r="U67" s="87"/>
       <c r="V67" s="40"/>
       <c r="W67" s="39"/>
-      <c r="X67" s="183"/>
+      <c r="X67" s="184"/>
       <c r="Y67" s="184"/>
       <c r="Z67" s="47"/>
       <c r="AB67" s="41"/>
     </row>
     <row r="68" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="60"/>
+      <c r="A68" s="51"/>
       <c r="B68" s="52"/>
       <c r="C68" s="52"/>
       <c r="D68" s="52"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="50"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="182"/>
-      <c r="O68" s="182"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="104"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="104"/>
+      <c r="N68" s="105"/>
+      <c r="O68" s="105"/>
       <c r="P68" s="53"/>
       <c r="Q68" s="53"/>
       <c r="R68" s="53"/>
       <c r="S68" s="53"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
+      <c r="T68" s="87"/>
+      <c r="U68" s="87"/>
       <c r="V68" s="40"/>
       <c r="W68" s="39"/>
-      <c r="X68" s="183"/>
+      <c r="X68" s="184"/>
       <c r="Y68" s="184"/>
       <c r="Z68" s="47"/>
       <c r="AB68" s="41"/>
     </row>
     <row r="69" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
+      <c r="A69" s="51"/>
       <c r="B69" s="52"/>
       <c r="C69" s="52"/>
       <c r="D69" s="52"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="50"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="182"/>
-      <c r="O69" s="182"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="104"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="104"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="105"/>
       <c r="P69" s="53"/>
       <c r="Q69" s="53"/>
       <c r="R69" s="53"/>
       <c r="S69" s="53"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
+      <c r="T69" s="87"/>
+      <c r="U69" s="87"/>
       <c r="V69" s="40"/>
       <c r="W69" s="39"/>
-      <c r="X69" s="183"/>
+      <c r="X69" s="184"/>
       <c r="Y69" s="184"/>
       <c r="Z69" s="47"/>
       <c r="AB69" s="41"/>
     </row>
     <row r="70" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="60"/>
+      <c r="A70" s="51"/>
       <c r="B70" s="52"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="50"/>
-      <c r="K70" s="51"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="51"/>
-      <c r="N70" s="182"/>
-      <c r="O70" s="182"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="104"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="104"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
       <c r="P70" s="53"/>
       <c r="Q70" s="53"/>
       <c r="R70" s="53"/>
       <c r="S70" s="53"/>
-      <c r="T70" s="54"/>
-      <c r="U70" s="54"/>
+      <c r="T70" s="87"/>
+      <c r="U70" s="87"/>
       <c r="V70" s="40"/>
       <c r="W70" s="39"/>
-      <c r="X70" s="183"/>
+      <c r="X70" s="184"/>
       <c r="Y70" s="184"/>
       <c r="Z70" s="47"/>
       <c r="AB70" s="41"/>
     </row>
     <row r="71" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="60"/>
+      <c r="A71" s="51"/>
       <c r="B71" s="52"/>
       <c r="C71" s="52"/>
       <c r="D71" s="52"/>
-      <c r="E71" s="50"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="55"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="55"/>
-      <c r="J71" s="50"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="50"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="182"/>
-      <c r="O71" s="182"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="104"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="104"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="105"/>
       <c r="P71" s="53"/>
       <c r="Q71" s="53"/>
       <c r="R71" s="53"/>
       <c r="S71" s="53"/>
-      <c r="T71" s="54"/>
-      <c r="U71" s="54"/>
+      <c r="T71" s="87"/>
+      <c r="U71" s="87"/>
       <c r="V71" s="40"/>
       <c r="W71" s="39"/>
-      <c r="X71" s="183"/>
+      <c r="X71" s="184"/>
       <c r="Y71" s="184"/>
       <c r="Z71" s="47"/>
       <c r="AB71" s="41"/>
     </row>
     <row r="72" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="60"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="55"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="55"/>
-      <c r="J72" s="50"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="50"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="182"/>
-      <c r="O72" s="182"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
       <c r="P72" s="53"/>
       <c r="Q72" s="53"/>
       <c r="R72" s="53"/>
       <c r="S72" s="53"/>
-      <c r="T72" s="54"/>
-      <c r="U72" s="54"/>
+      <c r="T72" s="87"/>
+      <c r="U72" s="87"/>
       <c r="V72" s="40"/>
       <c r="W72" s="39"/>
-      <c r="X72" s="183"/>
+      <c r="X72" s="184"/>
       <c r="Y72" s="184"/>
       <c r="Z72" s="47"/>
       <c r="AB72" s="41"/>
     </row>
     <row r="73" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="134" t="s">
+      <c r="A73" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="135"/>
-      <c r="C73" s="135"/>
-      <c r="D73" s="135"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
-      <c r="R73" s="67"/>
-      <c r="S73" s="67"/>
-      <c r="T73" s="67"/>
-      <c r="U73" s="67"/>
-      <c r="V73" s="67"/>
-      <c r="W73" s="67"/>
-      <c r="X73" s="67"/>
-      <c r="Y73" s="67"/>
-      <c r="Z73" s="68"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="102"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="102"/>
+      <c r="U73" s="102"/>
+      <c r="V73" s="102"/>
+      <c r="W73" s="102"/>
+      <c r="X73" s="102"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="103"/>
     </row>
     <row r="74" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="1:28" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5151,34 +5143,34 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="66" t="s">
+      <c r="A83" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="67"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
-      <c r="U83" s="67"/>
-      <c r="V83" s="67"/>
-      <c r="W83" s="67"/>
-      <c r="X83" s="67"/>
-      <c r="Y83" s="67"/>
-      <c r="Z83" s="68"/>
+      <c r="B83" s="102"/>
+      <c r="C83" s="102"/>
+      <c r="D83" s="102"/>
+      <c r="E83" s="102"/>
+      <c r="F83" s="102"/>
+      <c r="G83" s="102"/>
+      <c r="H83" s="102"/>
+      <c r="I83" s="102"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="102"/>
+      <c r="M83" s="102"/>
+      <c r="N83" s="102"/>
+      <c r="O83" s="102"/>
+      <c r="P83" s="102"/>
+      <c r="Q83" s="102"/>
+      <c r="R83" s="102"/>
+      <c r="S83" s="102"/>
+      <c r="T83" s="102"/>
+      <c r="U83" s="102"/>
+      <c r="V83" s="102"/>
+      <c r="W83" s="102"/>
+      <c r="X83" s="102"/>
+      <c r="Y83" s="102"/>
+      <c r="Z83" s="103"/>
     </row>
     <row r="84" spans="1:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N84" s="8"/>
@@ -5189,64 +5181,64 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="127" t="s">
+      <c r="A85" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="128"/>
-      <c r="C85" s="128"/>
-      <c r="D85" s="128"/>
-      <c r="E85" s="128"/>
-      <c r="F85" s="129"/>
-      <c r="H85" s="127" t="s">
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="98"/>
+      <c r="H85" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="I85" s="128"/>
-      <c r="J85" s="128"/>
-      <c r="K85" s="128"/>
-      <c r="L85" s="128"/>
-      <c r="M85" s="129"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
+      <c r="M85" s="98"/>
       <c r="N85" s="8"/>
-      <c r="O85" s="127" t="s">
+      <c r="O85" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="P85" s="128"/>
-      <c r="Q85" s="128"/>
-      <c r="R85" s="128"/>
-      <c r="S85" s="128"/>
-      <c r="T85" s="129"/>
-      <c r="V85" s="127" t="s">
+      <c r="P85" s="97"/>
+      <c r="Q85" s="97"/>
+      <c r="R85" s="97"/>
+      <c r="S85" s="97"/>
+      <c r="T85" s="98"/>
+      <c r="V85" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="W85" s="128"/>
-      <c r="X85" s="128"/>
-      <c r="Y85" s="128"/>
-      <c r="Z85" s="129"/>
+      <c r="W85" s="97"/>
+      <c r="X85" s="97"/>
+      <c r="Y85" s="97"/>
+      <c r="Z85" s="98"/>
     </row>
     <row r="86" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="179"/>
-      <c r="B86" s="180"/>
-      <c r="C86" s="180"/>
-      <c r="D86" s="180"/>
-      <c r="E86" s="180"/>
-      <c r="F86" s="181"/>
-      <c r="H86" s="179"/>
-      <c r="I86" s="180"/>
-      <c r="J86" s="180"/>
-      <c r="K86" s="180"/>
-      <c r="L86" s="180"/>
-      <c r="M86" s="181"/>
+      <c r="A86" s="88"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="90"/>
+      <c r="H86" s="88"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="89"/>
+      <c r="K86" s="89"/>
+      <c r="L86" s="89"/>
+      <c r="M86" s="90"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="179"/>
-      <c r="P86" s="180"/>
-      <c r="Q86" s="180"/>
-      <c r="R86" s="180"/>
-      <c r="S86" s="180"/>
-      <c r="T86" s="181"/>
-      <c r="V86" s="179"/>
-      <c r="W86" s="180"/>
-      <c r="X86" s="180"/>
-      <c r="Y86" s="180"/>
-      <c r="Z86" s="181"/>
+      <c r="O86" s="88"/>
+      <c r="P86" s="89"/>
+      <c r="Q86" s="89"/>
+      <c r="R86" s="89"/>
+      <c r="S86" s="89"/>
+      <c r="T86" s="90"/>
+      <c r="V86" s="88"/>
+      <c r="W86" s="89"/>
+      <c r="X86" s="89"/>
+      <c r="Y86" s="89"/>
+      <c r="Z86" s="90"/>
     </row>
     <row r="87" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -5275,64 +5267,64 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="141" t="s">
+      <c r="A88" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="143"/>
-      <c r="H88" s="127" t="s">
+      <c r="B88" s="94"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="94"/>
+      <c r="E88" s="94"/>
+      <c r="F88" s="95"/>
+      <c r="H88" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="I88" s="128"/>
-      <c r="J88" s="128"/>
-      <c r="K88" s="128"/>
-      <c r="L88" s="128"/>
-      <c r="M88" s="129"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="97"/>
+      <c r="K88" s="97"/>
+      <c r="L88" s="97"/>
+      <c r="M88" s="98"/>
       <c r="N88" s="8"/>
-      <c r="O88" s="141" t="s">
+      <c r="O88" s="93" t="s">
         <v>146</v>
       </c>
-      <c r="P88" s="142"/>
-      <c r="Q88" s="142"/>
-      <c r="R88" s="142"/>
-      <c r="S88" s="142"/>
-      <c r="T88" s="143"/>
-      <c r="V88" s="127" t="s">
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
+      <c r="T88" s="95"/>
+      <c r="V88" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="W88" s="128"/>
-      <c r="X88" s="128"/>
-      <c r="Y88" s="128"/>
-      <c r="Z88" s="129"/>
+      <c r="W88" s="97"/>
+      <c r="X88" s="97"/>
+      <c r="Y88" s="97"/>
+      <c r="Z88" s="98"/>
     </row>
     <row r="89" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="179"/>
-      <c r="B89" s="180"/>
-      <c r="C89" s="180"/>
-      <c r="D89" s="180"/>
-      <c r="E89" s="180"/>
-      <c r="F89" s="181"/>
-      <c r="H89" s="179"/>
-      <c r="I89" s="180"/>
-      <c r="J89" s="180"/>
-      <c r="K89" s="180"/>
-      <c r="L89" s="180"/>
-      <c r="M89" s="181"/>
+      <c r="A89" s="88"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="90"/>
+      <c r="H89" s="88"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="89"/>
+      <c r="L89" s="89"/>
+      <c r="M89" s="90"/>
       <c r="N89" s="8"/>
-      <c r="O89" s="179"/>
-      <c r="P89" s="180"/>
-      <c r="Q89" s="180"/>
-      <c r="R89" s="180"/>
-      <c r="S89" s="180"/>
-      <c r="T89" s="181"/>
-      <c r="V89" s="179"/>
-      <c r="W89" s="180"/>
-      <c r="X89" s="180"/>
-      <c r="Y89" s="180"/>
-      <c r="Z89" s="181"/>
+      <c r="O89" s="88"/>
+      <c r="P89" s="89"/>
+      <c r="Q89" s="89"/>
+      <c r="R89" s="89"/>
+      <c r="S89" s="89"/>
+      <c r="T89" s="90"/>
+      <c r="V89" s="88"/>
+      <c r="W89" s="89"/>
+      <c r="X89" s="89"/>
+      <c r="Y89" s="89"/>
+      <c r="Z89" s="90"/>
     </row>
     <row r="90" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -5361,68 +5353,68 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M91" s="139" t="s">
+      <c r="M91" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="N91" s="139"/>
-      <c r="O91" s="140"/>
-      <c r="P91" s="140"/>
-      <c r="Q91" s="140"/>
-      <c r="R91" s="140"/>
+      <c r="N91" s="91"/>
+      <c r="O91" s="92"/>
+      <c r="P91" s="92"/>
+      <c r="Q91" s="92"/>
+      <c r="R91" s="92"/>
       <c r="S91" s="8"/>
       <c r="T91" s="17"/>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="67"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="67"/>
-      <c r="N93" s="67"/>
-      <c r="O93" s="67"/>
-      <c r="P93" s="67"/>
-      <c r="Q93" s="67"/>
-      <c r="R93" s="67"/>
-      <c r="S93" s="67"/>
-      <c r="T93" s="67"/>
-      <c r="U93" s="67"/>
-      <c r="V93" s="67"/>
-      <c r="W93" s="67"/>
-      <c r="X93" s="67"/>
-      <c r="Y93" s="67"/>
-      <c r="Z93" s="68"/>
+      <c r="B93" s="102"/>
+      <c r="C93" s="102"/>
+      <c r="D93" s="102"/>
+      <c r="E93" s="102"/>
+      <c r="F93" s="102"/>
+      <c r="G93" s="102"/>
+      <c r="H93" s="102"/>
+      <c r="I93" s="102"/>
+      <c r="J93" s="102"/>
+      <c r="K93" s="102"/>
+      <c r="L93" s="102"/>
+      <c r="M93" s="102"/>
+      <c r="N93" s="102"/>
+      <c r="O93" s="102"/>
+      <c r="P93" s="102"/>
+      <c r="Q93" s="102"/>
+      <c r="R93" s="102"/>
+      <c r="S93" s="102"/>
+      <c r="T93" s="102"/>
+      <c r="U93" s="102"/>
+      <c r="V93" s="102"/>
+      <c r="W93" s="102"/>
+      <c r="X93" s="102"/>
+      <c r="Y93" s="102"/>
+      <c r="Z93" s="103"/>
     </row>
     <row r="95" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="69"/>
-      <c r="F95" s="69" t="s">
+      <c r="E95" s="139"/>
+      <c r="F95" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="69"/>
-      <c r="H95" s="69" t="s">
+      <c r="G95" s="139"/>
+      <c r="H95" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="I95" s="69"/>
-      <c r="L95" s="70" t="s">
+      <c r="I95" s="139"/>
+      <c r="L95" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="M95" s="70"/>
-      <c r="N95" s="70"/>
+      <c r="M95" s="140"/>
+      <c r="N95" s="140"/>
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
       <c r="Q95" s="35"/>
@@ -5433,137 +5425,217 @@
       <c r="Y116" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="388">
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="D35:Z35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:Z36"/>
-    <mergeCell ref="A30:C38"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="T50:Z50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="N51:O52"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:Z38"/>
-    <mergeCell ref="D45:Z45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:Z46"/>
-    <mergeCell ref="D47:Z47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:Z48"/>
-    <mergeCell ref="A40:C48"/>
-    <mergeCell ref="A27:Z27"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="O89:T89"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="H86:M86"/>
-    <mergeCell ref="O86:T86"/>
-    <mergeCell ref="V86:Z86"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="O88:T88"/>
-    <mergeCell ref="V88:Z88"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="H85:M85"/>
-    <mergeCell ref="O85:T85"/>
-    <mergeCell ref="V85:Z85"/>
-    <mergeCell ref="X51:Y52"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="A83:Z83"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="A73:Z73"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="A53:D53"/>
+  <mergeCells count="368">
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F32:Z32"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:Z42"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="A7:Z7"/>
+    <mergeCell ref="A9:Z9"/>
+    <mergeCell ref="A28:Z28"/>
+    <mergeCell ref="F30:Z30"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A8:Z8"/>
+    <mergeCell ref="F34:Z34"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F44:Z44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F40:Z40"/>
+    <mergeCell ref="D43:Z43"/>
+    <mergeCell ref="A39:Z39"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="X1:Z2"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A93:Z93"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="L51:M52"/>
+    <mergeCell ref="E51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D31:Z31"/>
+    <mergeCell ref="D33:Z33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:W2"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="T51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="D32:E32"/>
@@ -5588,242 +5660,142 @@
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="O85:T85"/>
+    <mergeCell ref="V85:Z85"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="A83:Z83"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="A73:Z73"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="O89:T89"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="H86:M86"/>
+    <mergeCell ref="O86:T86"/>
+    <mergeCell ref="V86:Z86"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="O88:T88"/>
+    <mergeCell ref="V88:Z88"/>
     <mergeCell ref="A54:D54"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="X4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="J10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:W2"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="T51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="E51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D31:Z31"/>
-    <mergeCell ref="D33:Z33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="X1:Z2"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="R10:X10"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A93:Z93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A28:Z28"/>
-    <mergeCell ref="F30:Z30"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A8:Z8"/>
-    <mergeCell ref="F34:Z34"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F44:Z44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F40:Z40"/>
-    <mergeCell ref="D43:Z43"/>
-    <mergeCell ref="A39:Z39"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="J65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="R65:S65"/>
     <mergeCell ref="T65:U65"/>
-    <mergeCell ref="X65:Y65"/>
     <mergeCell ref="E65:I65"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E64:I64"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="X57:Y57"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F32:Z32"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:Z42"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="T50:Z50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="N51:O52"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:Z38"/>
+    <mergeCell ref="D45:Z45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:Z46"/>
+    <mergeCell ref="D47:Z47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:Z48"/>
+    <mergeCell ref="A40:C48"/>
+    <mergeCell ref="A27:Z27"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="D35:Z35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:Z36"/>
+    <mergeCell ref="A30:C38"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
   </mergeCells>
-  <conditionalFormatting sqref="X4 Z4">
+  <conditionalFormatting sqref="Z4 X4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5837,7 +5809,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.15748031496062992"/>
-  <pageSetup scale="48" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <pageSetup scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CNO CONTROLADO A LA IMPRESIÓN. Si desea consultar la versión actualizada de este documento, consulte siempre la página: https://pioneeres.sharepoint.com/, en el sistema de Gestión Documental.</oddFooter>
   </headerFooter>
@@ -5901,75 +5873,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="168"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="174" t="s">
+      <c r="A1" s="174"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="180" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
-      <c r="I1" s="174"/>
-      <c r="J1" s="174"/>
-      <c r="K1" s="174"/>
-      <c r="L1" s="174"/>
-      <c r="M1" s="174"/>
-      <c r="N1" s="174"/>
-      <c r="O1" s="174"/>
-      <c r="P1" s="174"/>
-      <c r="Q1" s="174"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="158"/>
-      <c r="T1" s="158"/>
-      <c r="U1" s="159"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="169"/>
     </row>
     <row r="2" spans="1:21" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="170"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="160"/>
-      <c r="S2" s="160"/>
-      <c r="T2" s="160"/>
-      <c r="U2" s="161"/>
+      <c r="A2" s="176"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="181"/>
+      <c r="O2" s="181"/>
+      <c r="P2" s="181"/>
+      <c r="Q2" s="181"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="171"/>
     </row>
     <row r="3" spans="1:21" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="172"/>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="162"/>
-      <c r="S3" s="162"/>
-      <c r="T3" s="162"/>
-      <c r="U3" s="163"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
+      <c r="K3" s="182"/>
+      <c r="L3" s="182"/>
+      <c r="M3" s="182"/>
+      <c r="N3" s="182"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="182"/>
+      <c r="Q3" s="182"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="173"/>
     </row>
     <row r="4" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
@@ -6018,31 +5990,31 @@
       <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="165" t="s">
+      <c r="A6" s="163" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="166" t="s">
+      <c r="B6" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="166"/>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="166"/>
-      <c r="R6" s="166"/>
-      <c r="S6" s="166"/>
-      <c r="T6" s="166"/>
-      <c r="U6" s="167"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="164"/>
+      <c r="I6" s="164"/>
+      <c r="J6" s="164"/>
+      <c r="K6" s="164"/>
+      <c r="L6" s="164"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="164"/>
+      <c r="O6" s="164"/>
+      <c r="P6" s="164"/>
+      <c r="Q6" s="164"/>
+      <c r="R6" s="164"/>
+      <c r="S6" s="164"/>
+      <c r="T6" s="164"/>
+      <c r="U6" s="165"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
@@ -6066,175 +6038,175 @@
       <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="162" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="164"/>
-      <c r="N8" s="164"/>
-      <c r="O8" s="164"/>
-      <c r="P8" s="164"/>
-      <c r="Q8" s="164"/>
-      <c r="R8" s="164"/>
-      <c r="S8" s="164"/>
-      <c r="T8" s="164"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="162"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="162"/>
+      <c r="K8" s="162"/>
+      <c r="L8" s="162"/>
+      <c r="M8" s="162"/>
+      <c r="N8" s="162"/>
+      <c r="O8" s="162"/>
+      <c r="P8" s="162"/>
+      <c r="Q8" s="162"/>
+      <c r="R8" s="162"/>
+      <c r="S8" s="162"/>
+      <c r="T8" s="162"/>
       <c r="U8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="164"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="164"/>
-      <c r="C11" s="164"/>
-      <c r="D11" s="164"/>
-      <c r="E11" s="164"/>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
-      <c r="C12" s="164"/>
-      <c r="D12" s="164"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="164"/>
-      <c r="K13" s="164"/>
-      <c r="L13" s="164"/>
-      <c r="M13" s="164"/>
-      <c r="N13" s="164"/>
-      <c r="O13" s="164"/>
-      <c r="P13" s="164"/>
-      <c r="Q13" s="164"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
-      <c r="C14" s="164"/>
-      <c r="D14" s="164"/>
-      <c r="E14" s="164"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="164"/>
-      <c r="K14" s="164"/>
-      <c r="L14" s="164"/>
-      <c r="M14" s="164"/>
-      <c r="N14" s="164"/>
-      <c r="O14" s="164"/>
-      <c r="P14" s="164"/>
-      <c r="Q14" s="164"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="162"/>
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
-      <c r="C15" s="164"/>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="164"/>
-      <c r="K15" s="164"/>
-      <c r="L15" s="164"/>
-      <c r="M15" s="164"/>
-      <c r="N15" s="164"/>
-      <c r="O15" s="164"/>
-      <c r="P15" s="164"/>
-      <c r="Q15" s="164"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="43"/>
@@ -6258,31 +6230,31 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="166" t="s">
+      <c r="B17" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="166"/>
-      <c r="L17" s="166"/>
-      <c r="M17" s="166"/>
-      <c r="N17" s="166"/>
-      <c r="O17" s="166"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="166"/>
-      <c r="R17" s="166"/>
-      <c r="S17" s="166"/>
-      <c r="T17" s="166"/>
-      <c r="U17" s="167"/>
+      <c r="C17" s="164"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="164"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="164"/>
+      <c r="L17" s="164"/>
+      <c r="M17" s="164"/>
+      <c r="N17" s="164"/>
+      <c r="O17" s="164"/>
+      <c r="P17" s="164"/>
+      <c r="Q17" s="164"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
+      <c r="U17" s="165"/>
     </row>
     <row r="18" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="K18" s="1" t="s">
@@ -6389,35 +6361,35 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="157" t="s">
+      <c r="B38" s="167" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157" t="s">
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="157"/>
-      <c r="H38" s="157"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="157" t="s">
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="157"/>
-      <c r="L38" s="157"/>
-      <c r="M38" s="157"/>
-      <c r="N38" s="157" t="s">
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="157"/>
-      <c r="P38" s="157"/>
-      <c r="Q38" s="157"/>
-      <c r="R38" s="157" t="s">
+      <c r="O38" s="167"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="167" t="s">
         <v>123</v>
       </c>
-      <c r="S38" s="157"/>
-      <c r="T38" s="157"/>
+      <c r="S38" s="167"/>
+      <c r="T38" s="167"/>
     </row>
     <row r="39" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23"/>
@@ -6462,137 +6434,128 @@
       <c r="T40" s="23"/>
     </row>
     <row r="41" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="178"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="178"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="178"/>
-      <c r="K41" s="178"/>
-      <c r="L41" s="178"/>
-      <c r="M41" s="178"/>
-      <c r="N41" s="178"/>
-      <c r="O41" s="178"/>
-      <c r="P41" s="178"/>
-      <c r="Q41" s="178"/>
-      <c r="R41" s="178"/>
-      <c r="S41" s="178"/>
-      <c r="T41" s="178"/>
-      <c r="U41" s="178"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="166"/>
+      <c r="G41" s="166"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="166"/>
+      <c r="K41" s="166"/>
+      <c r="L41" s="166"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="166"/>
+      <c r="P41" s="166"/>
+      <c r="Q41" s="166"/>
+      <c r="R41" s="166"/>
+      <c r="S41" s="166"/>
+      <c r="T41" s="166"/>
+      <c r="U41" s="166"/>
     </row>
     <row r="42" spans="1:21" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="177"/>
-      <c r="C42" s="177"/>
-      <c r="D42" s="177"/>
-      <c r="E42" s="177"/>
-      <c r="F42" s="177"/>
-      <c r="G42" s="177"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="177"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="177"/>
-      <c r="M42" s="177"/>
-      <c r="N42" s="177"/>
-      <c r="O42" s="177"/>
-      <c r="P42" s="177"/>
-      <c r="Q42" s="177"/>
-      <c r="R42" s="177"/>
-      <c r="S42" s="177"/>
-      <c r="T42" s="177"/>
+      <c r="B42" s="161"/>
+      <c r="C42" s="161"/>
+      <c r="D42" s="161"/>
+      <c r="E42" s="161"/>
+      <c r="F42" s="161"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
+      <c r="M42" s="161"/>
+      <c r="N42" s="161"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
+      <c r="S42" s="161"/>
+      <c r="T42" s="161"/>
     </row>
     <row r="43" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="165" t="s">
+      <c r="A44" s="163" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="166" t="s">
+      <c r="B44" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="166"/>
-      <c r="D44" s="166"/>
-      <c r="E44" s="166"/>
-      <c r="F44" s="166"/>
-      <c r="G44" s="166"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="166"/>
-      <c r="L44" s="166"/>
-      <c r="M44" s="166"/>
-      <c r="N44" s="166"/>
-      <c r="O44" s="166"/>
-      <c r="P44" s="166"/>
-      <c r="Q44" s="166"/>
-      <c r="R44" s="166"/>
-      <c r="S44" s="166"/>
-      <c r="T44" s="166"/>
-      <c r="U44" s="167"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="164"/>
+      <c r="G44" s="164"/>
+      <c r="H44" s="164"/>
+      <c r="I44" s="164"/>
+      <c r="J44" s="164"/>
+      <c r="K44" s="164"/>
+      <c r="L44" s="164"/>
+      <c r="M44" s="164"/>
+      <c r="N44" s="164"/>
+      <c r="O44" s="164"/>
+      <c r="P44" s="164"/>
+      <c r="Q44" s="164"/>
+      <c r="R44" s="164"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="164"/>
+      <c r="U44" s="165"/>
     </row>
     <row r="46" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="164" t="s">
+      <c r="B46" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="164"/>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="164"/>
-      <c r="K46" s="164"/>
-      <c r="L46" s="164"/>
-      <c r="M46" s="164"/>
-      <c r="N46" s="164"/>
-      <c r="O46" s="164"/>
-      <c r="P46" s="164"/>
-      <c r="Q46" s="164"/>
-      <c r="R46" s="164"/>
-      <c r="S46" s="164"/>
-      <c r="T46" s="164"/>
+      <c r="C46" s="162"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="162"/>
+      <c r="P46" s="162"/>
+      <c r="Q46" s="162"/>
+      <c r="R46" s="162"/>
+      <c r="S46" s="162"/>
+      <c r="T46" s="162"/>
     </row>
     <row r="47" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="164" t="s">
+      <c r="B47" s="162" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="164"/>
-      <c r="D47" s="164"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="164"/>
-      <c r="G47" s="164"/>
-      <c r="H47" s="164"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="164"/>
-      <c r="K47" s="164"/>
-      <c r="L47" s="164"/>
-      <c r="M47" s="164"/>
-      <c r="N47" s="164"/>
-      <c r="O47" s="164"/>
-      <c r="P47" s="164"/>
-      <c r="Q47" s="164"/>
-      <c r="R47" s="164"/>
-      <c r="S47" s="164"/>
-      <c r="T47" s="164"/>
+      <c r="C47" s="162"/>
+      <c r="D47" s="162"/>
+      <c r="E47" s="162"/>
+      <c r="F47" s="162"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="162"/>
+      <c r="K47" s="162"/>
+      <c r="L47" s="162"/>
+      <c r="M47" s="162"/>
+      <c r="N47" s="162"/>
+      <c r="O47" s="162"/>
+      <c r="P47" s="162"/>
+      <c r="Q47" s="162"/>
+      <c r="R47" s="162"/>
+      <c r="S47" s="162"/>
+      <c r="T47" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="B46:T46"/>
-    <mergeCell ref="B47:T47"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="A41:U41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="R38:T38"/>
     <mergeCell ref="R1:U3"/>
@@ -6604,6 +6567,15 @@
     <mergeCell ref="A6:U6"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="E1:Q3"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="B46:T46"/>
+    <mergeCell ref="B47:T47"/>
+    <mergeCell ref="A44:U44"/>
+    <mergeCell ref="A41:U41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.15748031496062992"/>

--- a/Formato ACR - limpio.xlsx
+++ b/Formato ACR - limpio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\Proyecto ACR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6625FBD6-FE18-4E26-9046-A9351A43E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E470A0-EFC8-4F7A-B1C8-9E346E19FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1807,7 +1807,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1943,13 +1943,118 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1961,14 +2066,53 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1976,13 +2120,145 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2003,347 +2279,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2832,8 +2835,8 @@
   </sheetPr>
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F53" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="X60" sqref="X60"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F43" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2863,64 +2866,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131"/>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="133" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="137" t="s">
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
+      <c r="Y1" s="86"/>
+      <c r="Z1" s="86"/>
     </row>
     <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
     </row>
     <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
@@ -2951,78 +2954,78 @@
       <c r="Z3" s="46"/>
     </row>
     <row r="4" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="114"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="117" t="s">
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="117"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="117" t="s">
+      <c r="H4" s="124"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="117"/>
-      <c r="N4" s="117"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="112"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-      <c r="S4" s="117" t="s">
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="119"/>
+      <c r="Q4" s="119"/>
+      <c r="R4" s="119"/>
+      <c r="S4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="118" t="s">
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="119"/>
-      <c r="Z4" s="122"/>
+      <c r="Y4" s="126"/>
+      <c r="Z4" s="129"/>
     </row>
     <row r="5" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="125" t="s">
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="131" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="125" t="s">
+      <c r="H5" s="131"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
+      <c r="L5" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
-      <c r="O5" s="113"/>
-      <c r="P5" s="113"/>
-      <c r="Q5" s="113"/>
-      <c r="R5" s="113"/>
-      <c r="S5" s="125" t="s">
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="120"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="125"/>
-      <c r="U5" s="125"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="120"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="123"/>
+      <c r="T5" s="131"/>
+      <c r="U5" s="131"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="127"/>
+      <c r="Y5" s="128"/>
+      <c r="Z5" s="80"/>
     </row>
     <row r="6" spans="1:26" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -3052,859 +3055,859 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="142"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="142"/>
-      <c r="R7" s="142"/>
-      <c r="S7" s="142"/>
-      <c r="T7" s="142"/>
-      <c r="U7" s="142"/>
-      <c r="V7" s="142"/>
-      <c r="W7" s="142"/>
-      <c r="X7" s="142"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="143"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="68"/>
     </row>
     <row r="8" spans="1:26" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="151"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="152"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="152"/>
-      <c r="L8" s="152"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="152"/>
-      <c r="O8" s="152"/>
-      <c r="P8" s="152"/>
-      <c r="Q8" s="152"/>
-      <c r="R8" s="152"/>
-      <c r="S8" s="152"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="152"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="153"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="77"/>
     </row>
     <row r="9" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="145"/>
-      <c r="R9" s="145"/>
-      <c r="S9" s="145"/>
-      <c r="T9" s="145"/>
-      <c r="U9" s="145"/>
-      <c r="V9" s="145"/>
-      <c r="W9" s="145"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="145"/>
-      <c r="Z9" s="146"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="71"/>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="130"/>
-      <c r="L10" s="130"/>
-      <c r="M10" s="130" t="s">
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="130"/>
-      <c r="O10" s="130" t="s">
+      <c r="N10" s="87"/>
+      <c r="O10" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-      <c r="R10" s="130" t="s">
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="130"/>
-      <c r="T10" s="130"/>
-      <c r="U10" s="130"/>
-      <c r="V10" s="130"/>
-      <c r="W10" s="130"/>
-      <c r="X10" s="130"/>
-      <c r="Y10" s="130" t="s">
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87" t="s">
         <v>134</v>
       </c>
-      <c r="Z10" s="138"/>
+      <c r="Z10" s="88"/>
     </row>
     <row r="11" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="129"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="130"/>
-      <c r="K11" s="130"/>
-      <c r="L11" s="130"/>
-      <c r="M11" s="130"/>
-      <c r="N11" s="130"/>
-      <c r="O11" s="130"/>
-      <c r="P11" s="130"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="130" t="s">
+      <c r="A11" s="110"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="130"/>
-      <c r="T11" s="130"/>
-      <c r="U11" s="130"/>
-      <c r="V11" s="130" t="s">
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="130"/>
-      <c r="X11" s="130"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="138"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="88"/>
     </row>
     <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="52"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="54"/>
-      <c r="X12" s="54"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="56"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="91"/>
     </row>
     <row r="13" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="54"/>
-      <c r="W13" s="54"/>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="90"/>
+      <c r="Z13" s="91"/>
     </row>
     <row r="14" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="90"/>
+      <c r="Z14" s="91"/>
     </row>
     <row r="15" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="53"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="54"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="56"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="90"/>
+      <c r="Z15" s="91"/>
     </row>
     <row r="16" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="53"/>
-      <c r="S16" s="52"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="54"/>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="55"/>
-      <c r="Z16" s="56"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="90"/>
+      <c r="Z16" s="91"/>
     </row>
     <row r="17" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="52"/>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="54"/>
-      <c r="X17" s="54"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="58"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="91"/>
     </row>
     <row r="18" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="56"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="90"/>
+      <c r="Z18" s="91"/>
     </row>
     <row r="19" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="54"/>
-      <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="56"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="58"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="90"/>
+      <c r="Z19" s="91"/>
     </row>
     <row r="20" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="52"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="91"/>
     </row>
     <row r="21" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="53"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55"/>
-      <c r="Z21" s="56"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="58"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="91"/>
     </row>
     <row r="22" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="54"/>
-      <c r="W22" s="54"/>
-      <c r="X22" s="54"/>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="56"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
+      <c r="Q22" s="58"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="91"/>
     </row>
     <row r="23" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="52"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="54"/>
-      <c r="W23" s="54"/>
-      <c r="X23" s="54"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
+      <c r="Q23" s="58"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="91"/>
     </row>
     <row r="24" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="51"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="52"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="54"/>
-      <c r="W24" s="54"/>
-      <c r="X24" s="54"/>
-      <c r="Y24" s="55"/>
-      <c r="Z24" s="56"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="58"/>
+      <c r="P24" s="58"/>
+      <c r="Q24" s="58"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="58"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="90"/>
+      <c r="Z24" s="91"/>
     </row>
     <row r="25" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="52"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="55"/>
-      <c r="Z25" s="56"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="90"/>
+      <c r="Z25" s="91"/>
     </row>
     <row r="26" spans="1:26" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="51"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="53"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="54"/>
-      <c r="W26" s="54"/>
-      <c r="X26" s="54"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="90"/>
+      <c r="Z26" s="91"/>
     </row>
     <row r="27" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="84"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="85"/>
-      <c r="X27" s="85"/>
-      <c r="Y27" s="85"/>
-      <c r="Z27" s="86"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="156"/>
     </row>
     <row r="28" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147" t="s">
+      <c r="A28" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="148"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="148"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="148"/>
-      <c r="P28" s="148"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="149"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="73"/>
+      <c r="V28" s="73"/>
+      <c r="W28" s="73"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="74"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="157" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="80" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="80"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="52"/>
-      <c r="S30" s="52"/>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="52"/>
-      <c r="Z30" s="150"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="59"/>
     </row>
     <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="57" t="s">
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="59"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="83"/>
     </row>
     <row r="32" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="80" t="s">
+      <c r="A32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="80"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="52"/>
-      <c r="Q32" s="52"/>
-      <c r="R32" s="52"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="52"/>
-      <c r="Z32" s="150"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="58"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="59"/>
     </row>
     <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="58"/>
-      <c r="R33" s="58"/>
-      <c r="S33" s="58"/>
-      <c r="T33" s="58"/>
-      <c r="U33" s="58"/>
-      <c r="V33" s="58"/>
-      <c r="W33" s="58"/>
-      <c r="X33" s="58"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="59"/>
+      <c r="A33" s="159"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="83"/>
     </row>
     <row r="34" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="60" t="s">
+      <c r="A34" s="159"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
+      <c r="D34" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="63"/>
-      <c r="S34" s="63"/>
-      <c r="T34" s="63"/>
-      <c r="U34" s="63"/>
-      <c r="V34" s="63"/>
-      <c r="W34" s="63"/>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="63"/>
-      <c r="Z34" s="64"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="78"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="58"/>
-      <c r="J35" s="58"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
-      <c r="Q35" s="58"/>
-      <c r="R35" s="58"/>
-      <c r="S35" s="58"/>
-      <c r="T35" s="58"/>
-      <c r="U35" s="58"/>
-      <c r="V35" s="58"/>
-      <c r="W35" s="58"/>
-      <c r="X35" s="58"/>
-      <c r="Y35" s="58"/>
-      <c r="Z35" s="59"/>
+      <c r="A35" s="159"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="82"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="82"/>
+      <c r="X35" s="82"/>
+      <c r="Y35" s="82"/>
+      <c r="Z35" s="83"/>
     </row>
     <row r="36" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="60" t="s">
+      <c r="A36" s="159"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="63"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="63"/>
-      <c r="U36" s="63"/>
-      <c r="V36" s="63"/>
-      <c r="W36" s="63"/>
-      <c r="X36" s="63"/>
-      <c r="Y36" s="63"/>
-      <c r="Z36" s="64"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="78"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -3930,99 +3933,99 @@
       <c r="Z37" s="49"/>
     </row>
     <row r="38" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="69"/>
-      <c r="B38" s="70"/>
-      <c r="C38" s="70"/>
-      <c r="D38" s="60" t="s">
+      <c r="A38" s="161"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="63"/>
-      <c r="S38" s="63"/>
-      <c r="T38" s="63"/>
-      <c r="U38" s="63"/>
-      <c r="V38" s="63"/>
-      <c r="W38" s="63"/>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="63"/>
-      <c r="Z38" s="64"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="78"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="154"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="58"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="58"/>
-      <c r="S39" s="58"/>
-      <c r="T39" s="58"/>
-      <c r="U39" s="58"/>
-      <c r="V39" s="58"/>
-      <c r="W39" s="58"/>
-      <c r="X39" s="58"/>
-      <c r="Y39" s="58"/>
-      <c r="Z39" s="59"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="82"/>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="82"/>
+      <c r="S39" s="82"/>
+      <c r="T39" s="82"/>
+      <c r="U39" s="82"/>
+      <c r="V39" s="82"/>
+      <c r="W39" s="82"/>
+      <c r="X39" s="82"/>
+      <c r="Y39" s="82"/>
+      <c r="Z39" s="83"/>
     </row>
     <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="80" t="s">
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="80"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
-      <c r="R40" s="52"/>
-      <c r="S40" s="52"/>
-      <c r="T40" s="52"/>
-      <c r="U40" s="52"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="52"/>
-      <c r="Y40" s="52"/>
-      <c r="Z40" s="150"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="58"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="58"/>
+      <c r="L40" s="58"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="58"/>
+      <c r="S40" s="58"/>
+      <c r="T40" s="58"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="58"/>
+      <c r="W40" s="58"/>
+      <c r="X40" s="58"/>
+      <c r="Y40" s="58"/>
+      <c r="Z40" s="59"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="83"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="86"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -4048,937 +4051,937 @@
       <c r="Z41" s="37"/>
     </row>
     <row r="42" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="83"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="80" t="s">
+      <c r="A42" s="86"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="80"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52"/>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52"/>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52"/>
-      <c r="Z42" s="150"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="58"/>
+      <c r="L42" s="58"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="58"/>
+      <c r="T42" s="58"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="58"/>
+      <c r="W42" s="58"/>
+      <c r="X42" s="58"/>
+      <c r="Y42" s="58"/>
+      <c r="Z42" s="59"/>
     </row>
     <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="83"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
-      <c r="Q43" s="58"/>
-      <c r="R43" s="58"/>
-      <c r="S43" s="58"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="58"/>
-      <c r="V43" s="58"/>
-      <c r="W43" s="58"/>
-      <c r="X43" s="58"/>
-      <c r="Y43" s="58"/>
-      <c r="Z43" s="59"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="86"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="82"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="82"/>
+      <c r="S43" s="82"/>
+      <c r="T43" s="82"/>
+      <c r="U43" s="82"/>
+      <c r="V43" s="82"/>
+      <c r="W43" s="82"/>
+      <c r="X43" s="82"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="83"/>
     </row>
     <row r="44" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="83"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="80" t="s">
+      <c r="A44" s="86"/>
+      <c r="B44" s="86"/>
+      <c r="C44" s="86"/>
+      <c r="D44" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="126"/>
-      <c r="J44" s="126"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="126"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="126"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="126"/>
-      <c r="S44" s="126"/>
-      <c r="T44" s="126"/>
-      <c r="U44" s="126"/>
-      <c r="V44" s="126"/>
-      <c r="W44" s="126"/>
-      <c r="X44" s="126"/>
-      <c r="Y44" s="126"/>
-      <c r="Z44" s="123"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
+      <c r="Q44" s="79"/>
+      <c r="R44" s="79"/>
+      <c r="S44" s="79"/>
+      <c r="T44" s="79"/>
+      <c r="U44" s="79"/>
+      <c r="V44" s="79"/>
+      <c r="W44" s="79"/>
+      <c r="X44" s="79"/>
+      <c r="Y44" s="79"/>
+      <c r="Z44" s="80"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="58"/>
-      <c r="R45" s="58"/>
-      <c r="S45" s="58"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="58"/>
-      <c r="V45" s="58"/>
-      <c r="W45" s="58"/>
-      <c r="X45" s="58"/>
-      <c r="Y45" s="58"/>
-      <c r="Z45" s="59"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="86"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="82"/>
+      <c r="G45" s="82"/>
+      <c r="H45" s="82"/>
+      <c r="I45" s="82"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="82"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="82"/>
+      <c r="N45" s="82"/>
+      <c r="O45" s="82"/>
+      <c r="P45" s="82"/>
+      <c r="Q45" s="82"/>
+      <c r="R45" s="82"/>
+      <c r="S45" s="82"/>
+      <c r="T45" s="82"/>
+      <c r="U45" s="82"/>
+      <c r="V45" s="82"/>
+      <c r="W45" s="82"/>
+      <c r="X45" s="82"/>
+      <c r="Y45" s="82"/>
+      <c r="Z45" s="83"/>
     </row>
     <row r="46" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="80" t="s">
+      <c r="A46" s="86"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="60" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="52"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="52"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-      <c r="R46" s="52"/>
-      <c r="S46" s="52"/>
-      <c r="T46" s="52"/>
-      <c r="U46" s="52"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="52"/>
-      <c r="X46" s="52"/>
-      <c r="Y46" s="52"/>
-      <c r="Z46" s="52"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="58"/>
+      <c r="R46" s="58"/>
+      <c r="S46" s="58"/>
+      <c r="T46" s="58"/>
+      <c r="U46" s="58"/>
+      <c r="V46" s="58"/>
+      <c r="W46" s="58"/>
+      <c r="X46" s="58"/>
+      <c r="Y46" s="58"/>
+      <c r="Z46" s="58"/>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="83"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="83"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="81"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="82"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
+      <c r="M47" s="152"/>
+      <c r="N47" s="152"/>
+      <c r="O47" s="152"/>
+      <c r="P47" s="152"/>
+      <c r="Q47" s="152"/>
+      <c r="R47" s="152"/>
+      <c r="S47" s="152"/>
+      <c r="T47" s="152"/>
+      <c r="U47" s="152"/>
+      <c r="V47" s="152"/>
+      <c r="W47" s="152"/>
+      <c r="X47" s="152"/>
+      <c r="Y47" s="152"/>
+      <c r="Z47" s="153"/>
     </row>
     <row r="48" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="80" t="s">
+      <c r="A48" s="86"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="86"/>
+      <c r="D48" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="E48" s="80"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="52"/>
-      <c r="O48" s="52"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-      <c r="R48" s="52"/>
-      <c r="S48" s="52"/>
-      <c r="T48" s="52"/>
-      <c r="U48" s="52"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="52"/>
-      <c r="X48" s="52"/>
-      <c r="Y48" s="52"/>
-      <c r="Z48" s="52"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
+      <c r="Q48" s="58"/>
+      <c r="R48" s="58"/>
+      <c r="S48" s="58"/>
+      <c r="T48" s="58"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="58"/>
+      <c r="W48" s="58"/>
+      <c r="X48" s="58"/>
+      <c r="Y48" s="58"/>
+      <c r="Z48" s="58"/>
     </row>
     <row r="49" spans="1:28" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="71" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="U50" s="71"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="71"/>
-      <c r="X50" s="72"/>
-      <c r="Y50" s="72"/>
-      <c r="Z50" s="73"/>
+      <c r="U50" s="150"/>
+      <c r="V50" s="62"/>
+      <c r="W50" s="150"/>
+      <c r="X50" s="62"/>
+      <c r="Y50" s="62"/>
+      <c r="Z50" s="151"/>
     </row>
     <row r="51" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74" t="s">
+      <c r="A51" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
-      <c r="D51" s="76"/>
-      <c r="E51" s="74" t="s">
+      <c r="B51" s="106"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="74" t="s">
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="102" t="s">
         <v>131</v>
       </c>
-      <c r="K51" s="76"/>
-      <c r="L51" s="74" t="s">
+      <c r="K51" s="103"/>
+      <c r="L51" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="M51" s="76"/>
-      <c r="N51" s="74" t="s">
+      <c r="M51" s="103"/>
+      <c r="N51" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="O51" s="76"/>
-      <c r="P51" s="108" t="s">
+      <c r="O51" s="103"/>
+      <c r="P51" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="136" t="s">
+      <c r="Q51" s="140"/>
+      <c r="R51" s="140"/>
+      <c r="S51" s="140"/>
+      <c r="T51" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="U51" s="136"/>
-      <c r="V51" s="75" t="s">
+      <c r="U51" s="117"/>
+      <c r="V51" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="W51" s="183" t="s">
+      <c r="W51" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="X51" s="130" t="s">
+      <c r="X51" s="87" t="s">
         <v>135</v>
       </c>
-      <c r="Y51" s="130"/>
-      <c r="Z51" s="74" t="s">
+      <c r="Y51" s="87"/>
+      <c r="Z51" s="102" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="110" t="s">
+      <c r="A52" s="104"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
+      <c r="J52" s="104"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="104"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="104"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="Q52" s="110"/>
-      <c r="R52" s="110" t="s">
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="S52" s="111"/>
-      <c r="T52" s="136"/>
-      <c r="U52" s="136"/>
-      <c r="V52" s="78"/>
-      <c r="W52" s="183"/>
+      <c r="S52" s="141"/>
+      <c r="T52" s="117"/>
+      <c r="U52" s="117"/>
+      <c r="V52" s="107"/>
+      <c r="W52" s="116"/>
       <c r="X52" s="50" t="s">
         <v>149</v>
       </c>
       <c r="Y52" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="Z52" s="77"/>
+      <c r="Z52" s="104"/>
     </row>
     <row r="53" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="51"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="104"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="104"/>
-      <c r="N53" s="105"/>
-      <c r="O53" s="105"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="87"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="53"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="55"/>
+      <c r="Q53" s="55"/>
+      <c r="R53" s="55"/>
+      <c r="S53" s="55"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
       <c r="V53" s="40"/>
       <c r="W53" s="39"/>
-      <c r="X53" s="184"/>
-      <c r="Y53" s="184"/>
+      <c r="X53" s="185"/>
+      <c r="Y53" s="51"/>
       <c r="Z53" s="47"/>
       <c r="AB53" s="41"/>
     </row>
     <row r="54" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="62"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="104"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="87"/>
-      <c r="U54" s="87"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="55"/>
+      <c r="Q54" s="55"/>
+      <c r="R54" s="55"/>
+      <c r="S54" s="55"/>
+      <c r="T54" s="56"/>
+      <c r="U54" s="56"/>
       <c r="V54" s="40"/>
       <c r="W54" s="39"/>
-      <c r="X54" s="184"/>
-      <c r="Y54" s="184"/>
+      <c r="X54" s="185"/>
+      <c r="Y54" s="51"/>
       <c r="Z54" s="47"/>
       <c r="AB54" s="41"/>
     </row>
     <row r="55" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="62"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="105"/>
-      <c r="O55" s="105"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="87"/>
-      <c r="U55" s="87"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="55"/>
+      <c r="Q55" s="55"/>
+      <c r="R55" s="55"/>
+      <c r="S55" s="55"/>
+      <c r="T55" s="56"/>
+      <c r="U55" s="56"/>
       <c r="V55" s="40"/>
       <c r="W55" s="39"/>
-      <c r="X55" s="184"/>
-      <c r="Y55" s="184"/>
+      <c r="X55" s="185"/>
+      <c r="Y55" s="51"/>
       <c r="Z55" s="47"/>
       <c r="AB55" s="41"/>
     </row>
     <row r="56" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="63"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="105"/>
-      <c r="O56" s="105"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="87"/>
-      <c r="U56" s="87"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="56"/>
+      <c r="U56" s="56"/>
       <c r="V56" s="40"/>
       <c r="W56" s="39"/>
-      <c r="X56" s="184"/>
-      <c r="Y56" s="184"/>
+      <c r="X56" s="185"/>
+      <c r="Y56" s="51"/>
       <c r="Z56" s="47"/>
       <c r="AB56" s="41"/>
     </row>
     <row r="57" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="62"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="105"/>
-      <c r="O57" s="105"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="87"/>
-      <c r="U57" s="87"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="52"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="56"/>
       <c r="V57" s="40"/>
       <c r="W57" s="39"/>
-      <c r="X57" s="184"/>
-      <c r="Y57" s="184"/>
+      <c r="X57" s="185"/>
+      <c r="Y57" s="51"/>
       <c r="Z57" s="47"/>
       <c r="AB57" s="41"/>
     </row>
     <row r="58" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
-      <c r="E58" s="62"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-      <c r="I58" s="63"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="104"/>
-      <c r="N58" s="105"/>
-      <c r="O58" s="105"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="87"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="55"/>
+      <c r="Q58" s="55"/>
+      <c r="R58" s="55"/>
+      <c r="S58" s="55"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
       <c r="V58" s="40"/>
       <c r="W58" s="39"/>
-      <c r="X58" s="184"/>
-      <c r="Y58" s="184"/>
+      <c r="X58" s="185"/>
+      <c r="Y58" s="51"/>
       <c r="Z58" s="47"/>
       <c r="AB58" s="41"/>
     </row>
     <row r="59" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
-      <c r="G59" s="63"/>
-      <c r="H59" s="63"/>
-      <c r="I59" s="63"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="104"/>
-      <c r="N59" s="105"/>
-      <c r="O59" s="105"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="87"/>
-      <c r="U59" s="87"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="58"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="55"/>
+      <c r="Q59" s="55"/>
+      <c r="R59" s="55"/>
+      <c r="S59" s="55"/>
+      <c r="T59" s="56"/>
+      <c r="U59" s="56"/>
       <c r="V59" s="40"/>
       <c r="W59" s="39"/>
-      <c r="X59" s="184"/>
-      <c r="Y59" s="184"/>
+      <c r="X59" s="185"/>
+      <c r="Y59" s="51"/>
       <c r="Z59" s="47"/>
       <c r="AB59" s="41"/>
     </row>
     <row r="60" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="63"/>
-      <c r="I60" s="63"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="104"/>
-      <c r="N60" s="105"/>
-      <c r="O60" s="105"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="87"/>
-      <c r="U60" s="87"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
+      <c r="U60" s="56"/>
       <c r="V60" s="40"/>
       <c r="W60" s="39"/>
-      <c r="X60" s="184"/>
-      <c r="Y60" s="184"/>
+      <c r="X60" s="185"/>
+      <c r="Y60" s="51"/>
       <c r="Z60" s="47"/>
       <c r="AB60" s="41"/>
     </row>
     <row r="61" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="104"/>
-      <c r="N61" s="105"/>
-      <c r="O61" s="105"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="87"/>
-      <c r="U61" s="87"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="55"/>
+      <c r="Q61" s="55"/>
+      <c r="R61" s="55"/>
+      <c r="S61" s="55"/>
+      <c r="T61" s="56"/>
+      <c r="U61" s="56"/>
       <c r="V61" s="40"/>
       <c r="W61" s="39"/>
-      <c r="X61" s="184"/>
-      <c r="Y61" s="184"/>
+      <c r="X61" s="185"/>
+      <c r="Y61" s="51"/>
       <c r="Z61" s="47"/>
       <c r="AB61" s="41"/>
     </row>
     <row r="62" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="105"/>
-      <c r="O62" s="105"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="87"/>
-      <c r="U62" s="87"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
+      <c r="P62" s="55"/>
+      <c r="Q62" s="55"/>
+      <c r="R62" s="55"/>
+      <c r="S62" s="55"/>
+      <c r="T62" s="56"/>
+      <c r="U62" s="56"/>
       <c r="V62" s="40"/>
       <c r="W62" s="39"/>
-      <c r="X62" s="184"/>
-      <c r="Y62" s="184"/>
+      <c r="X62" s="185"/>
+      <c r="Y62" s="51"/>
       <c r="Z62" s="47"/>
       <c r="AB62" s="41"/>
     </row>
     <row r="63" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="63"/>
-      <c r="G63" s="63"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="104"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="104"/>
-      <c r="N63" s="105"/>
-      <c r="O63" s="105"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="87"/>
-      <c r="U63" s="87"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="52"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
       <c r="V63" s="40"/>
       <c r="W63" s="39"/>
-      <c r="X63" s="184"/>
-      <c r="Y63" s="184"/>
+      <c r="X63" s="185"/>
+      <c r="Y63" s="51"/>
       <c r="Z63" s="47"/>
       <c r="AB63" s="41"/>
     </row>
     <row r="64" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="63"/>
-      <c r="I64" s="63"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="104"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="104"/>
-      <c r="N64" s="105"/>
-      <c r="O64" s="105"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="87"/>
-      <c r="U64" s="87"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="58"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="55"/>
+      <c r="Q64" s="55"/>
+      <c r="R64" s="55"/>
+      <c r="S64" s="55"/>
+      <c r="T64" s="56"/>
+      <c r="U64" s="56"/>
       <c r="V64" s="40"/>
       <c r="W64" s="39"/>
-      <c r="X64" s="184"/>
-      <c r="Y64" s="184"/>
+      <c r="X64" s="185"/>
+      <c r="Y64" s="51"/>
       <c r="Z64" s="47"/>
       <c r="AB64" s="41"/>
     </row>
     <row r="65" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="63"/>
-      <c r="G65" s="63"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="104"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="104"/>
-      <c r="N65" s="105"/>
-      <c r="O65" s="105"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="87"/>
-      <c r="U65" s="87"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="55"/>
+      <c r="Q65" s="55"/>
+      <c r="R65" s="55"/>
+      <c r="S65" s="55"/>
+      <c r="T65" s="56"/>
+      <c r="U65" s="56"/>
       <c r="V65" s="40"/>
       <c r="W65" s="39"/>
-      <c r="X65" s="184"/>
-      <c r="Y65" s="184"/>
+      <c r="X65" s="185"/>
+      <c r="Y65" s="51"/>
       <c r="Z65" s="47"/>
       <c r="AB65" s="41"/>
     </row>
     <row r="66" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="155"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="63"/>
-      <c r="I66" s="63"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="104"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="104"/>
-      <c r="N66" s="99"/>
-      <c r="O66" s="100"/>
-      <c r="P66" s="156"/>
-      <c r="Q66" s="157"/>
-      <c r="R66" s="156"/>
-      <c r="S66" s="157"/>
-      <c r="T66" s="158"/>
-      <c r="U66" s="159"/>
+      <c r="A66" s="95"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="96"/>
+      <c r="O66" s="97"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="99"/>
+      <c r="R66" s="98"/>
+      <c r="S66" s="99"/>
+      <c r="T66" s="100"/>
+      <c r="U66" s="101"/>
       <c r="V66" s="40"/>
       <c r="W66" s="39"/>
-      <c r="X66" s="184"/>
-      <c r="Y66" s="184"/>
+      <c r="X66" s="185"/>
+      <c r="Y66" s="51"/>
       <c r="Z66" s="47"/>
       <c r="AB66" s="41"/>
     </row>
     <row r="67" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="52"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="104"/>
-      <c r="N67" s="105"/>
-      <c r="O67" s="105"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="87"/>
-      <c r="U67" s="87"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="55"/>
+      <c r="R67" s="55"/>
+      <c r="S67" s="55"/>
+      <c r="T67" s="56"/>
+      <c r="U67" s="56"/>
       <c r="V67" s="40"/>
       <c r="W67" s="39"/>
-      <c r="X67" s="184"/>
-      <c r="Y67" s="184"/>
+      <c r="X67" s="185"/>
+      <c r="Y67" s="51"/>
       <c r="Z67" s="47"/>
       <c r="AB67" s="41"/>
     </row>
     <row r="68" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="51"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="104"/>
-      <c r="N68" s="105"/>
-      <c r="O68" s="105"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="87"/>
-      <c r="U68" s="87"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="55"/>
+      <c r="R68" s="55"/>
+      <c r="S68" s="55"/>
+      <c r="T68" s="56"/>
+      <c r="U68" s="56"/>
       <c r="V68" s="40"/>
       <c r="W68" s="39"/>
-      <c r="X68" s="184"/>
-      <c r="Y68" s="184"/>
+      <c r="X68" s="185"/>
+      <c r="Y68" s="51"/>
       <c r="Z68" s="47"/>
       <c r="AB68" s="41"/>
     </row>
     <row r="69" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="51"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="104"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="104"/>
-      <c r="N69" s="105"/>
-      <c r="O69" s="105"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="87"/>
-      <c r="U69" s="87"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="55"/>
+      <c r="R69" s="55"/>
+      <c r="S69" s="55"/>
+      <c r="T69" s="56"/>
+      <c r="U69" s="56"/>
       <c r="V69" s="40"/>
       <c r="W69" s="39"/>
-      <c r="X69" s="184"/>
-      <c r="Y69" s="184"/>
+      <c r="X69" s="185"/>
+      <c r="Y69" s="51"/>
       <c r="Z69" s="47"/>
       <c r="AB69" s="41"/>
     </row>
     <row r="70" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="63"/>
-      <c r="I70" s="63"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="104"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="104"/>
-      <c r="N70" s="105"/>
-      <c r="O70" s="105"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="87"/>
-      <c r="U70" s="87"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
+      <c r="P70" s="55"/>
+      <c r="Q70" s="55"/>
+      <c r="R70" s="55"/>
+      <c r="S70" s="55"/>
+      <c r="T70" s="56"/>
+      <c r="U70" s="56"/>
       <c r="V70" s="40"/>
       <c r="W70" s="39"/>
-      <c r="X70" s="184"/>
-      <c r="Y70" s="184"/>
+      <c r="X70" s="185"/>
+      <c r="Y70" s="51"/>
       <c r="Z70" s="47"/>
       <c r="AB70" s="41"/>
     </row>
     <row r="71" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="51"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="63"/>
-      <c r="I71" s="63"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="104"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="104"/>
-      <c r="N71" s="105"/>
-      <c r="O71" s="105"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="87"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="58"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="58"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="53"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="53"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
+      <c r="P71" s="55"/>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55"/>
+      <c r="S71" s="55"/>
+      <c r="T71" s="56"/>
+      <c r="U71" s="56"/>
       <c r="V71" s="40"/>
       <c r="W71" s="39"/>
-      <c r="X71" s="184"/>
-      <c r="Y71" s="184"/>
+      <c r="X71" s="185"/>
+      <c r="Y71" s="51"/>
       <c r="Z71" s="47"/>
       <c r="AB71" s="41"/>
     </row>
     <row r="72" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="51"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="63"/>
-      <c r="I72" s="63"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="104"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="104"/>
-      <c r="N72" s="105"/>
-      <c r="O72" s="105"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="87"/>
-      <c r="U72" s="87"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="57"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
+      <c r="I72" s="57"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="53"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="53"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="55"/>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55"/>
+      <c r="S72" s="55"/>
+      <c r="T72" s="56"/>
+      <c r="U72" s="56"/>
       <c r="V72" s="40"/>
       <c r="W72" s="39"/>
-      <c r="X72" s="184"/>
-      <c r="Y72" s="184"/>
+      <c r="X72" s="185"/>
+      <c r="Y72" s="51"/>
       <c r="Z72" s="47"/>
       <c r="AB72" s="41"/>
     </row>
     <row r="73" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="137" t="s">
         <v>39</v>
       </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="107"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="102"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="102"/>
-      <c r="J73" s="102"/>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102"/>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
-      <c r="O73" s="102"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="102"/>
-      <c r="T73" s="102"/>
-      <c r="U73" s="102"/>
-      <c r="V73" s="102"/>
-      <c r="W73" s="102"/>
-      <c r="X73" s="102"/>
-      <c r="Y73" s="102"/>
-      <c r="Z73" s="103"/>
+      <c r="B73" s="138"/>
+      <c r="C73" s="138"/>
+      <c r="D73" s="138"/>
+      <c r="E73" s="93"/>
+      <c r="F73" s="93"/>
+      <c r="G73" s="93"/>
+      <c r="H73" s="93"/>
+      <c r="I73" s="93"/>
+      <c r="J73" s="93"/>
+      <c r="K73" s="93"/>
+      <c r="L73" s="93"/>
+      <c r="M73" s="93"/>
+      <c r="N73" s="93"/>
+      <c r="O73" s="93"/>
+      <c r="P73" s="93"/>
+      <c r="Q73" s="93"/>
+      <c r="R73" s="93"/>
+      <c r="S73" s="93"/>
+      <c r="T73" s="93"/>
+      <c r="U73" s="93"/>
+      <c r="V73" s="93"/>
+      <c r="W73" s="93"/>
+      <c r="X73" s="93"/>
+      <c r="Y73" s="93"/>
+      <c r="Z73" s="94"/>
     </row>
     <row r="74" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="1:28" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5143,34 +5146,34 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="101" t="s">
+      <c r="A83" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="B83" s="102"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="102"/>
-      <c r="I83" s="102"/>
-      <c r="J83" s="102"/>
-      <c r="K83" s="102"/>
-      <c r="L83" s="102"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="102"/>
-      <c r="O83" s="102"/>
-      <c r="P83" s="102"/>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="102"/>
-      <c r="S83" s="102"/>
-      <c r="T83" s="102"/>
-      <c r="U83" s="102"/>
-      <c r="V83" s="102"/>
-      <c r="W83" s="102"/>
-      <c r="X83" s="102"/>
-      <c r="Y83" s="102"/>
-      <c r="Z83" s="103"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="93"/>
+      <c r="D83" s="93"/>
+      <c r="E83" s="93"/>
+      <c r="F83" s="93"/>
+      <c r="G83" s="93"/>
+      <c r="H83" s="93"/>
+      <c r="I83" s="93"/>
+      <c r="J83" s="93"/>
+      <c r="K83" s="93"/>
+      <c r="L83" s="93"/>
+      <c r="M83" s="93"/>
+      <c r="N83" s="93"/>
+      <c r="O83" s="93"/>
+      <c r="P83" s="93"/>
+      <c r="Q83" s="93"/>
+      <c r="R83" s="93"/>
+      <c r="S83" s="93"/>
+      <c r="T83" s="93"/>
+      <c r="U83" s="93"/>
+      <c r="V83" s="93"/>
+      <c r="W83" s="93"/>
+      <c r="X83" s="93"/>
+      <c r="Y83" s="93"/>
+      <c r="Z83" s="94"/>
     </row>
     <row r="84" spans="1:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N84" s="8"/>
@@ -5181,64 +5184,64 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="96" t="s">
+      <c r="A85" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="98"/>
-      <c r="H85" s="96" t="s">
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
+      <c r="F85" s="136"/>
+      <c r="H85" s="134" t="s">
         <v>137</v>
       </c>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="97"/>
-      <c r="L85" s="97"/>
-      <c r="M85" s="98"/>
+      <c r="I85" s="135"/>
+      <c r="J85" s="135"/>
+      <c r="K85" s="135"/>
+      <c r="L85" s="135"/>
+      <c r="M85" s="136"/>
       <c r="N85" s="8"/>
-      <c r="O85" s="96" t="s">
+      <c r="O85" s="134" t="s">
         <v>138</v>
       </c>
-      <c r="P85" s="97"/>
-      <c r="Q85" s="97"/>
-      <c r="R85" s="97"/>
-      <c r="S85" s="97"/>
-      <c r="T85" s="98"/>
-      <c r="V85" s="96" t="s">
+      <c r="P85" s="135"/>
+      <c r="Q85" s="135"/>
+      <c r="R85" s="135"/>
+      <c r="S85" s="135"/>
+      <c r="T85" s="136"/>
+      <c r="V85" s="134" t="s">
         <v>140</v>
       </c>
-      <c r="W85" s="97"/>
-      <c r="X85" s="97"/>
-      <c r="Y85" s="97"/>
-      <c r="Z85" s="98"/>
+      <c r="W85" s="135"/>
+      <c r="X85" s="135"/>
+      <c r="Y85" s="135"/>
+      <c r="Z85" s="136"/>
     </row>
     <row r="86" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="88"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="89"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="90"/>
-      <c r="H86" s="88"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="89"/>
-      <c r="M86" s="90"/>
+      <c r="A86" s="142"/>
+      <c r="B86" s="143"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="143"/>
+      <c r="E86" s="143"/>
+      <c r="F86" s="144"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="143"/>
+      <c r="J86" s="143"/>
+      <c r="K86" s="143"/>
+      <c r="L86" s="143"/>
+      <c r="M86" s="144"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="88"/>
-      <c r="P86" s="89"/>
-      <c r="Q86" s="89"/>
-      <c r="R86" s="89"/>
-      <c r="S86" s="89"/>
-      <c r="T86" s="90"/>
-      <c r="V86" s="88"/>
-      <c r="W86" s="89"/>
-      <c r="X86" s="89"/>
-      <c r="Y86" s="89"/>
-      <c r="Z86" s="90"/>
+      <c r="O86" s="142"/>
+      <c r="P86" s="143"/>
+      <c r="Q86" s="143"/>
+      <c r="R86" s="143"/>
+      <c r="S86" s="143"/>
+      <c r="T86" s="144"/>
+      <c r="V86" s="142"/>
+      <c r="W86" s="143"/>
+      <c r="X86" s="143"/>
+      <c r="Y86" s="143"/>
+      <c r="Z86" s="144"/>
     </row>
     <row r="87" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -5267,64 +5270,64 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="93" t="s">
+      <c r="A88" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="94"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="95"/>
-      <c r="H88" s="96" t="s">
+      <c r="B88" s="148"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="148"/>
+      <c r="E88" s="148"/>
+      <c r="F88" s="149"/>
+      <c r="H88" s="134" t="s">
         <v>139</v>
       </c>
-      <c r="I88" s="97"/>
-      <c r="J88" s="97"/>
-      <c r="K88" s="97"/>
-      <c r="L88" s="97"/>
-      <c r="M88" s="98"/>
+      <c r="I88" s="135"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="135"/>
+      <c r="L88" s="135"/>
+      <c r="M88" s="136"/>
       <c r="N88" s="8"/>
-      <c r="O88" s="93" t="s">
+      <c r="O88" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="P88" s="94"/>
-      <c r="Q88" s="94"/>
-      <c r="R88" s="94"/>
-      <c r="S88" s="94"/>
-      <c r="T88" s="95"/>
-      <c r="V88" s="96" t="s">
+      <c r="P88" s="148"/>
+      <c r="Q88" s="148"/>
+      <c r="R88" s="148"/>
+      <c r="S88" s="148"/>
+      <c r="T88" s="149"/>
+      <c r="V88" s="134" t="s">
         <v>142</v>
       </c>
-      <c r="W88" s="97"/>
-      <c r="X88" s="97"/>
-      <c r="Y88" s="97"/>
-      <c r="Z88" s="98"/>
+      <c r="W88" s="135"/>
+      <c r="X88" s="135"/>
+      <c r="Y88" s="135"/>
+      <c r="Z88" s="136"/>
     </row>
     <row r="89" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="88"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="89"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="90"/>
-      <c r="H89" s="88"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="89"/>
-      <c r="M89" s="90"/>
+      <c r="A89" s="142"/>
+      <c r="B89" s="143"/>
+      <c r="C89" s="143"/>
+      <c r="D89" s="143"/>
+      <c r="E89" s="143"/>
+      <c r="F89" s="144"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="143"/>
+      <c r="J89" s="143"/>
+      <c r="K89" s="143"/>
+      <c r="L89" s="143"/>
+      <c r="M89" s="144"/>
       <c r="N89" s="8"/>
-      <c r="O89" s="88"/>
-      <c r="P89" s="89"/>
-      <c r="Q89" s="89"/>
-      <c r="R89" s="89"/>
-      <c r="S89" s="89"/>
-      <c r="T89" s="90"/>
-      <c r="V89" s="88"/>
-      <c r="W89" s="89"/>
-      <c r="X89" s="89"/>
-      <c r="Y89" s="89"/>
-      <c r="Z89" s="90"/>
+      <c r="O89" s="142"/>
+      <c r="P89" s="143"/>
+      <c r="Q89" s="143"/>
+      <c r="R89" s="143"/>
+      <c r="S89" s="143"/>
+      <c r="T89" s="144"/>
+      <c r="V89" s="142"/>
+      <c r="W89" s="143"/>
+      <c r="X89" s="143"/>
+      <c r="Y89" s="143"/>
+      <c r="Z89" s="144"/>
     </row>
     <row r="90" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -5353,68 +5356,68 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M91" s="91" t="s">
+      <c r="M91" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="N91" s="91"/>
-      <c r="O91" s="92"/>
-      <c r="P91" s="92"/>
-      <c r="Q91" s="92"/>
-      <c r="R91" s="92"/>
+      <c r="N91" s="145"/>
+      <c r="O91" s="146"/>
+      <c r="P91" s="146"/>
+      <c r="Q91" s="146"/>
+      <c r="R91" s="146"/>
       <c r="S91" s="8"/>
       <c r="T91" s="17"/>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="101" t="s">
+      <c r="A93" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B93" s="102"/>
-      <c r="C93" s="102"/>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="102"/>
-      <c r="H93" s="102"/>
-      <c r="I93" s="102"/>
-      <c r="J93" s="102"/>
-      <c r="K93" s="102"/>
-      <c r="L93" s="102"/>
-      <c r="M93" s="102"/>
-      <c r="N93" s="102"/>
-      <c r="O93" s="102"/>
-      <c r="P93" s="102"/>
-      <c r="Q93" s="102"/>
-      <c r="R93" s="102"/>
-      <c r="S93" s="102"/>
-      <c r="T93" s="102"/>
-      <c r="U93" s="102"/>
-      <c r="V93" s="102"/>
-      <c r="W93" s="102"/>
-      <c r="X93" s="102"/>
-      <c r="Y93" s="102"/>
-      <c r="Z93" s="103"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="93"/>
+      <c r="D93" s="93"/>
+      <c r="E93" s="93"/>
+      <c r="F93" s="93"/>
+      <c r="G93" s="93"/>
+      <c r="H93" s="93"/>
+      <c r="I93" s="93"/>
+      <c r="J93" s="93"/>
+      <c r="K93" s="93"/>
+      <c r="L93" s="93"/>
+      <c r="M93" s="93"/>
+      <c r="N93" s="93"/>
+      <c r="O93" s="93"/>
+      <c r="P93" s="93"/>
+      <c r="Q93" s="93"/>
+      <c r="R93" s="93"/>
+      <c r="S93" s="93"/>
+      <c r="T93" s="93"/>
+      <c r="U93" s="93"/>
+      <c r="V93" s="93"/>
+      <c r="W93" s="93"/>
+      <c r="X93" s="93"/>
+      <c r="Y93" s="93"/>
+      <c r="Z93" s="94"/>
     </row>
     <row r="95" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="139" t="s">
+      <c r="D95" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="139"/>
-      <c r="F95" s="139" t="s">
+      <c r="E95" s="64"/>
+      <c r="F95" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="139"/>
-      <c r="H95" s="139" t="s">
+      <c r="G95" s="64"/>
+      <c r="H95" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="I95" s="139"/>
-      <c r="L95" s="140" t="s">
+      <c r="I95" s="64"/>
+      <c r="L95" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="M95" s="140"/>
-      <c r="N95" s="140"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
       <c r="Q95" s="35"/>
@@ -5426,130 +5429,226 @@
     </row>
   </sheetData>
   <mergeCells count="368">
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="E68:I68"/>
-    <mergeCell ref="F32:Z32"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:Z42"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="E69:I69"/>
-    <mergeCell ref="E70:I70"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="E71:I71"/>
-    <mergeCell ref="E72:I72"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="E63:I63"/>
-    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:Q25"/>
+    <mergeCell ref="R25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="R17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="A40:C48"/>
+    <mergeCell ref="A27:Z27"/>
+    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:Q18"/>
+    <mergeCell ref="R18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:Q19"/>
+    <mergeCell ref="R19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="O20:Q20"/>
+    <mergeCell ref="R20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:Z38"/>
+    <mergeCell ref="D35:Z35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:Z36"/>
+    <mergeCell ref="A30:C38"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="H89:M89"/>
+    <mergeCell ref="O89:T89"/>
+    <mergeCell ref="V89:Z89"/>
+    <mergeCell ref="M91:N91"/>
+    <mergeCell ref="O91:R91"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="H86:M86"/>
+    <mergeCell ref="O86:T86"/>
+    <mergeCell ref="V86:Z86"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="H88:M88"/>
+    <mergeCell ref="O88:T88"/>
+    <mergeCell ref="V88:Z88"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="H85:M85"/>
+    <mergeCell ref="O85:T85"/>
+    <mergeCell ref="V85:Z85"/>
+    <mergeCell ref="Z51:Z52"/>
+    <mergeCell ref="A83:Z83"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="A73:Z73"/>
+    <mergeCell ref="P51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="R16:U16"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="M10:N11"/>
+    <mergeCell ref="O10:Q11"/>
+    <mergeCell ref="R11:U11"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:W2"/>
+    <mergeCell ref="W51:W52"/>
+    <mergeCell ref="T51:U52"/>
+    <mergeCell ref="V51:V52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="R14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="T50:Z50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:I52"/>
+    <mergeCell ref="J51:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D31:Z31"/>
+    <mergeCell ref="D33:Z33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="N51:O52"/>
+    <mergeCell ref="D45:Z45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:Z46"/>
+    <mergeCell ref="D47:Z47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:Z48"/>
+    <mergeCell ref="X1:Z2"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="R10:X10"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A93:Z93"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="E67:I67"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="L51:M52"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:I95"/>
@@ -5574,228 +5673,132 @@
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
     <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="X1:Z2"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="R10:X10"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A93:Z93"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="E67:I67"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="E66:I66"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="L51:M52"/>
-    <mergeCell ref="E51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D31:Z31"/>
-    <mergeCell ref="D33:Z33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="J10:L11"/>
-    <mergeCell ref="M10:N11"/>
-    <mergeCell ref="O10:Q11"/>
-    <mergeCell ref="R11:U11"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:W2"/>
-    <mergeCell ref="W51:W52"/>
-    <mergeCell ref="T51:U52"/>
-    <mergeCell ref="V51:V52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="X4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="R14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:Q16"/>
-    <mergeCell ref="R16:U16"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="H85:M85"/>
-    <mergeCell ref="O85:T85"/>
-    <mergeCell ref="V85:Z85"/>
-    <mergeCell ref="Z51:Z52"/>
-    <mergeCell ref="A83:Z83"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="A73:Z73"/>
-    <mergeCell ref="P51:S51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="H89:M89"/>
-    <mergeCell ref="O89:T89"/>
-    <mergeCell ref="V89:Z89"/>
-    <mergeCell ref="M91:N91"/>
-    <mergeCell ref="O91:R91"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="H86:M86"/>
-    <mergeCell ref="O86:T86"/>
-    <mergeCell ref="V86:Z86"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="H88:M88"/>
-    <mergeCell ref="O88:T88"/>
-    <mergeCell ref="V88:Z88"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="E65:I65"/>
-    <mergeCell ref="T50:Z50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="N51:O52"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:Z38"/>
-    <mergeCell ref="D45:Z45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:Z46"/>
-    <mergeCell ref="D47:Z47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:Z48"/>
-    <mergeCell ref="A40:C48"/>
-    <mergeCell ref="A27:Z27"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="R15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:Q17"/>
-    <mergeCell ref="R17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:Q21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="D35:Z35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:Z36"/>
-    <mergeCell ref="A30:C38"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:Q25"/>
-    <mergeCell ref="R25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="T56:U56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="E71:I71"/>
+    <mergeCell ref="E72:I72"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="E69:I69"/>
+    <mergeCell ref="E70:I70"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="E68:I68"/>
+    <mergeCell ref="F32:Z32"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:Z42"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P56:Q56"/>
   </mergeCells>
-  <conditionalFormatting sqref="Z4 X4">
+  <conditionalFormatting sqref="X4 Z4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5892,10 +5895,10 @@
       <c r="O1" s="180"/>
       <c r="P1" s="180"/>
       <c r="Q1" s="180"/>
-      <c r="R1" s="168"/>
-      <c r="S1" s="168"/>
-      <c r="T1" s="168"/>
-      <c r="U1" s="169"/>
+      <c r="R1" s="164"/>
+      <c r="S1" s="164"/>
+      <c r="T1" s="164"/>
+      <c r="U1" s="165"/>
     </row>
     <row r="2" spans="1:21" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="176"/>
@@ -5915,10 +5918,10 @@
       <c r="O2" s="181"/>
       <c r="P2" s="181"/>
       <c r="Q2" s="181"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="170"/>
-      <c r="U2" s="171"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="167"/>
     </row>
     <row r="3" spans="1:21" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="178"/>
@@ -5938,10 +5941,10 @@
       <c r="O3" s="182"/>
       <c r="P3" s="182"/>
       <c r="Q3" s="182"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="173"/>
+      <c r="R3" s="168"/>
+      <c r="S3" s="168"/>
+      <c r="T3" s="168"/>
+      <c r="U3" s="169"/>
     </row>
     <row r="4" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
@@ -5990,31 +5993,31 @@
       <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="171" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="164"/>
-      <c r="I6" s="164"/>
-      <c r="J6" s="164"/>
-      <c r="K6" s="164"/>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="164"/>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="164"/>
-      <c r="T6" s="164"/>
-      <c r="U6" s="165"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="172"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
+      <c r="L6" s="172"/>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="172"/>
+      <c r="S6" s="172"/>
+      <c r="T6" s="172"/>
+      <c r="U6" s="173"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
@@ -6038,175 +6041,175 @@
       <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="162"/>
-      <c r="D8" s="162"/>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="Q8" s="162"/>
-      <c r="R8" s="162"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="162"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="170"/>
+      <c r="S8" s="170"/>
+      <c r="T8" s="170"/>
       <c r="U8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
+      <c r="B9" s="170"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="Q9" s="170"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="170"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="162"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
+      <c r="B10" s="170"/>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="Q10" s="170"/>
+      <c r="R10" s="170"/>
+      <c r="S10" s="170"/>
+      <c r="T10" s="170"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
+      <c r="B11" s="170"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="170"/>
+      <c r="S11" s="170"/>
+      <c r="T11" s="170"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="162"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="170"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="170"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="Q13" s="170"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="170"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="162"/>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="Q14" s="170"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="170"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="Q15" s="170"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="170"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="43"/>
@@ -6230,31 +6233,31 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="171" t="s">
         <v>118</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="164"/>
-      <c r="D17" s="164"/>
-      <c r="E17" s="164"/>
-      <c r="F17" s="164"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="164"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="164"/>
-      <c r="K17" s="164"/>
-      <c r="L17" s="164"/>
-      <c r="M17" s="164"/>
-      <c r="N17" s="164"/>
-      <c r="O17" s="164"/>
-      <c r="P17" s="164"/>
-      <c r="Q17" s="164"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="165"/>
+      <c r="C17" s="172"/>
+      <c r="D17" s="172"/>
+      <c r="E17" s="172"/>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="172"/>
+      <c r="R17" s="172"/>
+      <c r="S17" s="172"/>
+      <c r="T17" s="172"/>
+      <c r="U17" s="173"/>
     </row>
     <row r="18" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="K18" s="1" t="s">
@@ -6361,35 +6364,35 @@
       </c>
     </row>
     <row r="38" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="163" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167" t="s">
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167" t="s">
+      <c r="G38" s="163"/>
+      <c r="H38" s="163"/>
+      <c r="I38" s="163"/>
+      <c r="J38" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
-      <c r="M38" s="167"/>
-      <c r="N38" s="167" t="s">
+      <c r="K38" s="163"/>
+      <c r="L38" s="163"/>
+      <c r="M38" s="163"/>
+      <c r="N38" s="163" t="s">
         <v>122</v>
       </c>
-      <c r="O38" s="167"/>
-      <c r="P38" s="167"/>
-      <c r="Q38" s="167"/>
-      <c r="R38" s="167" t="s">
+      <c r="O38" s="163"/>
+      <c r="P38" s="163"/>
+      <c r="Q38" s="163"/>
+      <c r="R38" s="163" t="s">
         <v>123</v>
       </c>
-      <c r="S38" s="167"/>
-      <c r="T38" s="167"/>
+      <c r="S38" s="163"/>
+      <c r="T38" s="163"/>
     </row>
     <row r="39" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23"/>
@@ -6434,128 +6437,137 @@
       <c r="T40" s="23"/>
     </row>
     <row r="41" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="166"/>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
-      <c r="F41" s="166"/>
-      <c r="G41" s="166"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="166"/>
-      <c r="L41" s="166"/>
-      <c r="M41" s="166"/>
-      <c r="N41" s="166"/>
-      <c r="O41" s="166"/>
-      <c r="P41" s="166"/>
-      <c r="Q41" s="166"/>
-      <c r="R41" s="166"/>
-      <c r="S41" s="166"/>
-      <c r="T41" s="166"/>
-      <c r="U41" s="166"/>
+      <c r="A41" s="184"/>
+      <c r="B41" s="184"/>
+      <c r="C41" s="184"/>
+      <c r="D41" s="184"/>
+      <c r="E41" s="184"/>
+      <c r="F41" s="184"/>
+      <c r="G41" s="184"/>
+      <c r="H41" s="184"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="184"/>
+      <c r="K41" s="184"/>
+      <c r="L41" s="184"/>
+      <c r="M41" s="184"/>
+      <c r="N41" s="184"/>
+      <c r="O41" s="184"/>
+      <c r="P41" s="184"/>
+      <c r="Q41" s="184"/>
+      <c r="R41" s="184"/>
+      <c r="S41" s="184"/>
+      <c r="T41" s="184"/>
+      <c r="U41" s="184"/>
     </row>
     <row r="42" spans="1:21" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="161"/>
-      <c r="C42" s="161"/>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
-      <c r="M42" s="161"/>
-      <c r="N42" s="161"/>
-      <c r="O42" s="161"/>
-      <c r="P42" s="161"/>
-      <c r="Q42" s="161"/>
-      <c r="R42" s="161"/>
-      <c r="S42" s="161"/>
-      <c r="T42" s="161"/>
+      <c r="B42" s="183"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="183"/>
+      <c r="E42" s="183"/>
+      <c r="F42" s="183"/>
+      <c r="G42" s="183"/>
+      <c r="H42" s="183"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="183"/>
+      <c r="O42" s="183"/>
+      <c r="P42" s="183"/>
+      <c r="Q42" s="183"/>
+      <c r="R42" s="183"/>
+      <c r="S42" s="183"/>
+      <c r="T42" s="183"/>
     </row>
     <row r="43" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="163" t="s">
+      <c r="A44" s="171" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="164" t="s">
+      <c r="B44" s="172" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="164"/>
-      <c r="D44" s="164"/>
-      <c r="E44" s="164"/>
-      <c r="F44" s="164"/>
-      <c r="G44" s="164"/>
-      <c r="H44" s="164"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="164"/>
-      <c r="K44" s="164"/>
-      <c r="L44" s="164"/>
-      <c r="M44" s="164"/>
-      <c r="N44" s="164"/>
-      <c r="O44" s="164"/>
-      <c r="P44" s="164"/>
-      <c r="Q44" s="164"/>
-      <c r="R44" s="164"/>
-      <c r="S44" s="164"/>
-      <c r="T44" s="164"/>
-      <c r="U44" s="165"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="172"/>
+      <c r="E44" s="172"/>
+      <c r="F44" s="172"/>
+      <c r="G44" s="172"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="172"/>
+      <c r="N44" s="172"/>
+      <c r="O44" s="172"/>
+      <c r="P44" s="172"/>
+      <c r="Q44" s="172"/>
+      <c r="R44" s="172"/>
+      <c r="S44" s="172"/>
+      <c r="T44" s="172"/>
+      <c r="U44" s="173"/>
     </row>
     <row r="46" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="162" t="s">
+      <c r="B46" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="162"/>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="162"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="162"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="162"/>
-      <c r="P46" s="162"/>
-      <c r="Q46" s="162"/>
-      <c r="R46" s="162"/>
-      <c r="S46" s="162"/>
-      <c r="T46" s="162"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
+      <c r="M46" s="170"/>
+      <c r="N46" s="170"/>
+      <c r="O46" s="170"/>
+      <c r="P46" s="170"/>
+      <c r="Q46" s="170"/>
+      <c r="R46" s="170"/>
+      <c r="S46" s="170"/>
+      <c r="T46" s="170"/>
     </row>
     <row r="47" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="162" t="s">
+      <c r="B47" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="162"/>
-      <c r="D47" s="162"/>
-      <c r="E47" s="162"/>
-      <c r="F47" s="162"/>
-      <c r="G47" s="162"/>
-      <c r="H47" s="162"/>
-      <c r="I47" s="162"/>
-      <c r="J47" s="162"/>
-      <c r="K47" s="162"/>
-      <c r="L47" s="162"/>
-      <c r="M47" s="162"/>
-      <c r="N47" s="162"/>
-      <c r="O47" s="162"/>
-      <c r="P47" s="162"/>
-      <c r="Q47" s="162"/>
-      <c r="R47" s="162"/>
-      <c r="S47" s="162"/>
-      <c r="T47" s="162"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
+      <c r="M47" s="170"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="170"/>
+      <c r="P47" s="170"/>
+      <c r="Q47" s="170"/>
+      <c r="R47" s="170"/>
+      <c r="S47" s="170"/>
+      <c r="T47" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="B46:T46"/>
+    <mergeCell ref="B47:T47"/>
+    <mergeCell ref="A44:U44"/>
+    <mergeCell ref="A41:U41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
     <mergeCell ref="N38:Q38"/>
     <mergeCell ref="R38:T38"/>
     <mergeCell ref="R1:U3"/>
@@ -6567,15 +6579,6 @@
     <mergeCell ref="A6:U6"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="E1:Q3"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="B46:T46"/>
-    <mergeCell ref="B47:T47"/>
-    <mergeCell ref="A44:U44"/>
-    <mergeCell ref="A41:U41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.15748031496062992"/>

--- a/Formato ACR - limpio.xlsx
+++ b/Formato ACR - limpio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\Proyecto ACR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E470A0-EFC8-4F7A-B1C8-9E346E19FEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0BD06C-9165-4CD5-878F-6717C40D9307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="153">
   <si>
     <t>ACCIONES CORRECTIVAS Y DE MEJORA</t>
   </si>
@@ -208,9 +208,6 @@
     <t>RECURSOS</t>
   </si>
   <si>
-    <t>RESPONSABLES</t>
-  </si>
-  <si>
     <t>FECHA DE EJECUCIÓN</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
   </si>
   <si>
     <t>Fecha de ejecución</t>
-  </si>
-  <si>
-    <t>Responsable</t>
   </si>
   <si>
     <t>Fecha de seguimiento</t>
@@ -748,9 +742,6 @@
     <t>COSTOS ASOCIADOS A LA ACR</t>
   </si>
   <si>
-    <t>Responsable de ejecución</t>
-  </si>
-  <si>
     <t>Causas Asociadas</t>
   </si>
   <si>
@@ -786,9 +777,6 @@
     <t>Otros costos</t>
   </si>
   <si>
-    <t>Costo Total</t>
-  </si>
-  <si>
     <t>GIN
 V07</t>
   </si>
@@ -806,6 +794,27 @@
   </si>
   <si>
     <t>Horas</t>
+  </si>
+  <si>
+    <t>Impacto financiero total</t>
+  </si>
+  <si>
+    <t>Nombre del Responsable de Ejecución</t>
+  </si>
+  <si>
+    <t>Cargo del Responsable de Ejecución</t>
+  </si>
+  <si>
+    <t>Cargo del Responsable de Seguimiento</t>
+  </si>
+  <si>
+    <t>Nombre del Responsable de Seguimiento</t>
+  </si>
+  <si>
+    <t>NOMBRE RESPONSABLE</t>
+  </si>
+  <si>
+    <t>CARGO RESPONSABLE</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1041,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -1556,21 +1565,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1802,12 +1796,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1946,6 +1966,27 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1957,9 +1998,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2090,28 +2128,16 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2120,6 +2146,21 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2138,13 +2179,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2165,16 +2206,22 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2240,17 +2287,23 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2259,24 +2312,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2285,21 +2320,21 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2312,31 +2347,31 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2344,9 +2379,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2835,8 +2867,8 @@
   </sheetPr>
   <dimension ref="A1:AB116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="F43" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="V53" sqref="V53"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2845,20 +2877,23 @@
     <col min="2" max="3" width="9.5546875" style="6" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" style="6" customWidth="1"/>
     <col min="5" max="7" width="9.5546875" style="6" customWidth="1"/>
-    <col min="8" max="11" width="11.109375" style="6" customWidth="1"/>
-    <col min="12" max="13" width="12.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="18.5546875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="11.109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="35.77734375" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="32.5546875" style="6" customWidth="1"/>
+    <col min="14" max="14" width="29" style="6" customWidth="1"/>
     <col min="15" max="15" width="8.109375" style="6" customWidth="1"/>
     <col min="16" max="16" width="7.33203125" style="6" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="9.5546875" style="6" customWidth="1"/>
     <col min="19" max="19" width="4.6640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="9.5546875" style="6" customWidth="1"/>
-    <col min="21" max="21" width="10.44140625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="14" style="6" customWidth="1"/>
-    <col min="23" max="23" width="15" style="6" customWidth="1"/>
-    <col min="24" max="24" width="8.44140625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="9.6640625" style="6" customWidth="1"/>
+    <col min="20" max="20" width="31.88671875" style="6" customWidth="1"/>
+    <col min="21" max="21" width="27" style="6" customWidth="1"/>
+    <col min="22" max="22" width="18.5546875" style="6" customWidth="1"/>
+    <col min="23" max="23" width="20.5546875" style="6" customWidth="1"/>
+    <col min="24" max="24" width="10.21875" style="6" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="6" customWidth="1"/>
     <col min="26" max="26" width="26" style="6" customWidth="1"/>
     <col min="27" max="27" width="11.44140625" style="6"/>
     <col min="28" max="28" width="36.5546875" style="6" bestFit="1" customWidth="1"/>
@@ -2866,64 +2901,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111"/>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="113" t="s">
+      <c r="A1" s="118"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y1" s="92"/>
+      <c r="Z1" s="92"/>
     </row>
     <row r="2" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
     </row>
     <row r="3" spans="1:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44"/>
@@ -2954,78 +2989,78 @@
       <c r="Z3" s="46"/>
     </row>
     <row r="4" spans="1:26" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="124" t="s">
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="124"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="124" t="s">
+      <c r="H4" s="131"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119"/>
-      <c r="S4" s="124" t="s">
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="126"/>
+      <c r="P4" s="126"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="124"/>
-      <c r="U4" s="124"/>
-      <c r="V4" s="132"/>
-      <c r="W4" s="132"/>
-      <c r="X4" s="125" t="s">
+      <c r="T4" s="131"/>
+      <c r="U4" s="131"/>
+      <c r="V4" s="141"/>
+      <c r="W4" s="141"/>
+      <c r="X4" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="129"/>
+      <c r="Y4" s="135"/>
+      <c r="Z4" s="138"/>
     </row>
     <row r="5" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="131"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="131" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="140" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="131"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="131" t="s">
+      <c r="H5" s="140"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="120"/>
-      <c r="P5" s="120"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="120"/>
-      <c r="S5" s="131" t="s">
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="80"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="86"/>
     </row>
     <row r="6" spans="1:26" ht="8.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
@@ -3055,859 +3090,861 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="68"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="74"/>
     </row>
     <row r="8" spans="1:26" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="77"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="82"/>
+      <c r="S8" s="82"/>
+      <c r="T8" s="82"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="83"/>
     </row>
     <row r="9" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="71"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="77"/>
     </row>
     <row r="10" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="110" t="s">
+      <c r="A10" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87" t="s">
+      <c r="K10" s="93"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="N10" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="O10" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87" t="s">
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z10" s="94"/>
+    </row>
+    <row r="11" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="117"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z10" s="88"/>
-    </row>
-    <row r="11" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="110"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87" t="s">
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87" t="s">
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="94"/>
+    </row>
+    <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="97"/>
+    </row>
+    <row r="13" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="69"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="96"/>
+      <c r="Z13" s="97"/>
+    </row>
+    <row r="14" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="96"/>
+      <c r="Z14" s="97"/>
+    </row>
+    <row r="15" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="69"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="96"/>
+      <c r="Z15" s="97"/>
+    </row>
+    <row r="16" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="69"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="96"/>
+      <c r="Z16" s="97"/>
+    </row>
+    <row r="17" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="69"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="97"/>
+    </row>
+    <row r="18" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="69"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="96"/>
+      <c r="Z18" s="97"/>
+    </row>
+    <row r="19" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="96"/>
+      <c r="Z19" s="97"/>
+    </row>
+    <row r="20" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="69"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="96"/>
+      <c r="Z20" s="97"/>
+    </row>
+    <row r="21" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="69"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="96"/>
+      <c r="Z21" s="97"/>
+    </row>
+    <row r="22" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="69"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="96"/>
+      <c r="Z22" s="97"/>
+    </row>
+    <row r="23" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="69"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="97"/>
+    </row>
+    <row r="24" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="69"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="96"/>
+      <c r="Z24" s="97"/>
+    </row>
+    <row r="25" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="69"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="96"/>
+      <c r="Z25" s="97"/>
+    </row>
+    <row r="26" spans="1:26" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="69"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="96"/>
+      <c r="Z26" s="97"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="165"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="166"/>
+      <c r="T27" s="166"/>
+      <c r="U27" s="166"/>
+      <c r="V27" s="166"/>
+      <c r="W27" s="166"/>
+      <c r="X27" s="166"/>
+      <c r="Y27" s="166"/>
+      <c r="Z27" s="167"/>
+    </row>
+    <row r="28" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="88"/>
-    </row>
-    <row r="12" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="91"/>
-    </row>
-    <row r="13" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="91"/>
-    </row>
-    <row r="14" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90"/>
-      <c r="Z14" s="91"/>
-    </row>
-    <row r="15" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
-      <c r="Z15" s="91"/>
-    </row>
-    <row r="16" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
-      <c r="Z16" s="91"/>
-    </row>
-    <row r="17" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="58"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="58"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="91"/>
-    </row>
-    <row r="18" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
-      <c r="Z18" s="91"/>
-    </row>
-    <row r="19" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="90"/>
-      <c r="Z19" s="91"/>
-    </row>
-    <row r="20" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="91"/>
-    </row>
-    <row r="21" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
-      <c r="Q21" s="58"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="58"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="91"/>
-    </row>
-    <row r="22" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
-      <c r="Q22" s="58"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="58"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="91"/>
-    </row>
-    <row r="23" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="58"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="91"/>
-    </row>
-    <row r="24" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="58"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="90"/>
-      <c r="Z24" s="91"/>
-    </row>
-    <row r="25" spans="1:26" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="58"/>
-      <c r="T25" s="58"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="90"/>
-      <c r="Z25" s="91"/>
-    </row>
-    <row r="26" spans="1:26" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="58"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="58"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="90"/>
-      <c r="Z26" s="91"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="154"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="155"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="155"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="155"/>
-      <c r="R27" s="155"/>
-      <c r="S27" s="155"/>
-      <c r="T27" s="155"/>
-      <c r="U27" s="155"/>
-      <c r="V27" s="155"/>
-      <c r="W27" s="155"/>
-      <c r="X27" s="155"/>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="156"/>
-    </row>
-    <row r="28" spans="1:26" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="73"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="74"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="79"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
+      <c r="S28" s="79"/>
+      <c r="T28" s="79"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="80"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="12"/>
       <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="157" t="s">
+      <c r="A30" s="159" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
+      <c r="D30" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="60" t="s">
+      <c r="E30" s="66"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="65"/>
+    </row>
+    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="161"/>
+      <c r="B31" s="162"/>
+      <c r="C31" s="162"/>
+      <c r="D31" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="59"/>
-    </row>
-    <row r="31" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="159"/>
-      <c r="B31" s="160"/>
-      <c r="C31" s="160"/>
-      <c r="D31" s="81" t="s">
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+      <c r="Z31" s="89"/>
+    </row>
+    <row r="32" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="161"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="162"/>
+      <c r="D32" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="83"/>
-    </row>
-    <row r="32" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="159"/>
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
-      <c r="D32" s="60" t="s">
+      <c r="E32" s="66"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="64"/>
+      <c r="W32" s="64"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="65"/>
+    </row>
+    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="161"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+      <c r="W33" s="88"/>
+      <c r="X33" s="88"/>
+      <c r="Y33" s="88"/>
+      <c r="Z33" s="89"/>
+    </row>
+    <row r="34" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="161"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
-      <c r="Q32" s="58"/>
-      <c r="R32" s="58"/>
-      <c r="S32" s="58"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="58"/>
-      <c r="V32" s="58"/>
-      <c r="W32" s="58"/>
-      <c r="X32" s="58"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="59"/>
-    </row>
-    <row r="33" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="159"/>
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="83"/>
-    </row>
-    <row r="34" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="159"/>
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
-      <c r="D34" s="108" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="109"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
-      <c r="X34" s="57"/>
-      <c r="Y34" s="57"/>
-      <c r="Z34" s="78"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="84"/>
     </row>
     <row r="35" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="159"/>
-      <c r="B35" s="160"/>
-      <c r="C35" s="160"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="82"/>
-      <c r="X35" s="82"/>
-      <c r="Y35" s="82"/>
-      <c r="Z35" s="83"/>
+      <c r="A35" s="161"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+      <c r="W35" s="88"/>
+      <c r="X35" s="88"/>
+      <c r="Y35" s="88"/>
+      <c r="Z35" s="89"/>
     </row>
     <row r="36" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="159"/>
-      <c r="B36" s="160"/>
-      <c r="C36" s="160"/>
-      <c r="D36" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="109"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="78"/>
+      <c r="A36" s="161"/>
+      <c r="B36" s="162"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="110" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" s="111"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="84"/>
     </row>
     <row r="37" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159"/>
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
+      <c r="A37" s="161"/>
+      <c r="B37" s="162"/>
+      <c r="C37" s="162"/>
       <c r="D37" s="48"/>
       <c r="E37" s="48"/>
       <c r="F37" s="48"/>
@@ -3933,99 +3970,99 @@
       <c r="Z37" s="49"/>
     </row>
     <row r="38" spans="1:26" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161"/>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
-      <c r="D38" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="57"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
-      <c r="X38" s="57"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="78"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="110" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="111"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="84"/>
     </row>
     <row r="39" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="84"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="82"/>
-      <c r="L39" s="82"/>
-      <c r="M39" s="82"/>
-      <c r="N39" s="82"/>
-      <c r="O39" s="82"/>
-      <c r="P39" s="82"/>
-      <c r="Q39" s="82"/>
-      <c r="R39" s="82"/>
-      <c r="S39" s="82"/>
-      <c r="T39" s="82"/>
-      <c r="U39" s="82"/>
-      <c r="V39" s="82"/>
-      <c r="W39" s="82"/>
-      <c r="X39" s="82"/>
-      <c r="Y39" s="82"/>
-      <c r="Z39" s="83"/>
+      <c r="A39" s="90"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="88"/>
+      <c r="X39" s="88"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="89"/>
     </row>
     <row r="40" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="60"/>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="58"/>
-      <c r="J40" s="58"/>
-      <c r="K40" s="58"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
-      <c r="Q40" s="58"/>
-      <c r="R40" s="58"/>
-      <c r="S40" s="58"/>
-      <c r="T40" s="58"/>
-      <c r="U40" s="58"/>
-      <c r="V40" s="58"/>
-      <c r="W40" s="58"/>
-      <c r="X40" s="58"/>
-      <c r="Y40" s="58"/>
-      <c r="Z40" s="59"/>
+      <c r="A40" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="66"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="64"/>
+      <c r="W40" s="64"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="65"/>
     </row>
     <row r="41" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
       <c r="F41" s="36"/>
@@ -4051,942 +4088,946 @@
       <c r="Z41" s="37"/>
     </row>
     <row r="42" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="60" t="s">
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="66"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="65"/>
+    </row>
+    <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="N43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="88"/>
+      <c r="R43" s="88"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="88"/>
+      <c r="U43" s="88"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="88"/>
+      <c r="X43" s="88"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="89"/>
+    </row>
+    <row r="44" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-      <c r="K42" s="58"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
-      <c r="Q42" s="58"/>
-      <c r="R42" s="58"/>
-      <c r="S42" s="58"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="58"/>
-      <c r="V42" s="58"/>
-      <c r="W42" s="58"/>
-      <c r="X42" s="58"/>
-      <c r="Y42" s="58"/>
-      <c r="Z42" s="59"/>
-    </row>
-    <row r="43" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="82"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="82"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="82"/>
-      <c r="K43" s="82"/>
-      <c r="L43" s="82"/>
-      <c r="M43" s="82"/>
-      <c r="N43" s="82"/>
-      <c r="O43" s="82"/>
-      <c r="P43" s="82"/>
-      <c r="Q43" s="82"/>
-      <c r="R43" s="82"/>
-      <c r="S43" s="82"/>
-      <c r="T43" s="82"/>
-      <c r="U43" s="82"/>
-      <c r="V43" s="82"/>
-      <c r="W43" s="82"/>
-      <c r="X43" s="82"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="83"/>
-    </row>
-    <row r="44" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-      <c r="Q44" s="79"/>
-      <c r="R44" s="79"/>
-      <c r="S44" s="79"/>
-      <c r="T44" s="79"/>
-      <c r="U44" s="79"/>
-      <c r="V44" s="79"/>
-      <c r="W44" s="79"/>
-      <c r="X44" s="79"/>
-      <c r="Y44" s="79"/>
-      <c r="Z44" s="80"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="85"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="85"/>
+      <c r="R44" s="85"/>
+      <c r="S44" s="85"/>
+      <c r="T44" s="85"/>
+      <c r="U44" s="85"/>
+      <c r="V44" s="85"/>
+      <c r="W44" s="85"/>
+      <c r="X44" s="85"/>
+      <c r="Y44" s="85"/>
+      <c r="Z44" s="86"/>
     </row>
     <row r="45" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="82"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="82"/>
-      <c r="J45" s="82"/>
-      <c r="K45" s="82"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="82"/>
-      <c r="N45" s="82"/>
-      <c r="O45" s="82"/>
-      <c r="P45" s="82"/>
-      <c r="Q45" s="82"/>
-      <c r="R45" s="82"/>
-      <c r="S45" s="82"/>
-      <c r="T45" s="82"/>
-      <c r="U45" s="82"/>
-      <c r="V45" s="82"/>
-      <c r="W45" s="82"/>
-      <c r="X45" s="82"/>
-      <c r="Y45" s="82"/>
-      <c r="Z45" s="83"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="89"/>
     </row>
     <row r="46" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58"/>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="58"/>
-      <c r="Z46" s="58"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" s="66"/>
+      <c r="F46" s="64"/>
+      <c r="G46" s="64"/>
+      <c r="H46" s="64"/>
+      <c r="I46" s="64"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64"/>
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
     </row>
     <row r="47" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="152"/>
-      <c r="M47" s="152"/>
-      <c r="N47" s="152"/>
-      <c r="O47" s="152"/>
-      <c r="P47" s="152"/>
-      <c r="Q47" s="152"/>
-      <c r="R47" s="152"/>
-      <c r="S47" s="152"/>
-      <c r="T47" s="152"/>
-      <c r="U47" s="152"/>
-      <c r="V47" s="152"/>
-      <c r="W47" s="152"/>
-      <c r="X47" s="152"/>
-      <c r="Y47" s="152"/>
-      <c r="Z47" s="153"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="112"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="112"/>
+      <c r="K47" s="112"/>
+      <c r="L47" s="112"/>
+      <c r="M47" s="112"/>
+      <c r="N47" s="112"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+      <c r="Q47" s="112"/>
+      <c r="R47" s="112"/>
+      <c r="S47" s="112"/>
+      <c r="T47" s="112"/>
+      <c r="U47" s="112"/>
+      <c r="V47" s="112"/>
+      <c r="W47" s="112"/>
+      <c r="X47" s="112"/>
+      <c r="Y47" s="112"/>
+      <c r="Z47" s="113"/>
     </row>
     <row r="48" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
-      <c r="Q48" s="58"/>
-      <c r="R48" s="58"/>
-      <c r="S48" s="58"/>
-      <c r="T48" s="58"/>
-      <c r="U48" s="58"/>
-      <c r="V48" s="58"/>
-      <c r="W48" s="58"/>
-      <c r="X48" s="58"/>
-      <c r="Y48" s="58"/>
-      <c r="Z48" s="58"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="66"/>
+      <c r="F48" s="64"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="64"/>
+      <c r="L48" s="64"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="64"/>
+      <c r="T48" s="64"/>
+      <c r="U48" s="64"/>
+      <c r="V48" s="64"/>
+      <c r="W48" s="64"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
     </row>
     <row r="49" spans="1:28" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="62"/>
-      <c r="Q50" s="62"/>
-      <c r="R50" s="62"/>
-      <c r="S50" s="62"/>
-      <c r="T50" s="150" t="s">
+      <c r="U50" s="132"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="132"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="68"/>
+      <c r="Z50" s="133"/>
+    </row>
+    <row r="51" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="U50" s="150"/>
-      <c r="V50" s="62"/>
-      <c r="W50" s="150"/>
-      <c r="X50" s="62"/>
-      <c r="Y50" s="62"/>
-      <c r="Z50" s="151"/>
-    </row>
-    <row r="51" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="102" t="s">
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="114" t="s">
+        <v>147</v>
+      </c>
+      <c r="K51" s="114" t="s">
+        <v>148</v>
+      </c>
+      <c r="L51" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="M51" s="107"/>
+      <c r="N51" s="106" t="s">
+        <v>130</v>
+      </c>
+      <c r="O51" s="107"/>
+      <c r="P51" s="148" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="149"/>
+      <c r="R51" s="149"/>
+      <c r="S51" s="149"/>
+      <c r="T51" s="115" t="s">
+        <v>150</v>
+      </c>
+      <c r="U51" s="115" t="s">
+        <v>149</v>
+      </c>
+      <c r="V51" s="124" t="s">
+        <v>32</v>
+      </c>
+      <c r="W51" s="123" t="s">
+        <v>33</v>
+      </c>
+      <c r="X51" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="B51" s="106"/>
-      <c r="C51" s="106"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="102" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-      <c r="J51" s="102" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51" s="103"/>
-      <c r="L51" s="102" t="s">
-        <v>129</v>
-      </c>
-      <c r="M51" s="103"/>
-      <c r="N51" s="102" t="s">
-        <v>133</v>
-      </c>
-      <c r="O51" s="103"/>
-      <c r="P51" s="139" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q51" s="140"/>
-      <c r="R51" s="140"/>
-      <c r="S51" s="140"/>
-      <c r="T51" s="117" t="s">
-        <v>33</v>
-      </c>
-      <c r="U51" s="117"/>
-      <c r="V51" s="106" t="s">
+      <c r="Y51" s="93"/>
+      <c r="Z51" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="W51" s="116" t="s">
+    </row>
+    <row r="52" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="108"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="108"/>
+      <c r="O52" s="109"/>
+      <c r="P52" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="X51" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y51" s="87"/>
-      <c r="Z51" s="102" t="s">
+      <c r="Q52" s="114"/>
+      <c r="R52" s="114" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="52" spans="1:28" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="104"/>
-      <c r="B52" s="107"/>
-      <c r="C52" s="107"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="107"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="107"/>
-      <c r="I52" s="107"/>
-      <c r="J52" s="104"/>
-      <c r="K52" s="105"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="105"/>
-      <c r="P52" s="118" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118" t="s">
-        <v>38</v>
-      </c>
-      <c r="S52" s="141"/>
-      <c r="T52" s="117"/>
-      <c r="U52" s="117"/>
-      <c r="V52" s="107"/>
-      <c r="W52" s="116"/>
+      <c r="S52" s="150"/>
+      <c r="T52" s="116"/>
+      <c r="U52" s="116"/>
+      <c r="V52" s="125"/>
+      <c r="W52" s="123"/>
       <c r="X52" s="50" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y52" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z52" s="104"/>
+        <v>130</v>
+      </c>
+      <c r="Z52" s="108"/>
     </row>
     <row r="53" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="52"/>
-      <c r="F53" s="57"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="57"/>
+      <c r="A53" s="69"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="52"/>
       <c r="K53" s="53"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="56"/>
-      <c r="U53" s="56"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="54"/>
+      <c r="U53" s="54"/>
       <c r="V53" s="40"/>
       <c r="W53" s="39"/>
-      <c r="X53" s="185"/>
+      <c r="X53" s="52"/>
       <c r="Y53" s="51"/>
       <c r="Z53" s="47"/>
       <c r="AB53" s="41"/>
     </row>
     <row r="54" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="63"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="59"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
       <c r="J54" s="52"/>
       <c r="K54" s="53"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="54"/>
+      <c r="U54" s="54"/>
       <c r="V54" s="40"/>
       <c r="W54" s="39"/>
-      <c r="X54" s="185"/>
+      <c r="X54" s="52"/>
       <c r="Y54" s="51"/>
       <c r="Z54" s="47"/>
       <c r="AB54" s="41"/>
     </row>
     <row r="55" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="63"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
+      <c r="A55" s="69"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
       <c r="J55" s="52"/>
       <c r="K55" s="53"/>
-      <c r="L55" s="52"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="56"/>
-      <c r="U55" s="56"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="54"/>
+      <c r="U55" s="54"/>
       <c r="V55" s="40"/>
       <c r="W55" s="39"/>
-      <c r="X55" s="185"/>
+      <c r="X55" s="52"/>
       <c r="Y55" s="51"/>
       <c r="Z55" s="47"/>
       <c r="AB55" s="41"/>
     </row>
     <row r="56" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="63"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="63"/>
       <c r="J56" s="52"/>
       <c r="K56" s="53"/>
-      <c r="L56" s="52"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="56"/>
-      <c r="U56" s="56"/>
+      <c r="L56" s="59"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="54"/>
+      <c r="U56" s="54"/>
       <c r="V56" s="40"/>
       <c r="W56" s="39"/>
-      <c r="X56" s="185"/>
+      <c r="X56" s="52"/>
       <c r="Y56" s="51"/>
       <c r="Z56" s="47"/>
       <c r="AB56" s="41"/>
     </row>
     <row r="57" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="52"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="57"/>
+      <c r="A57" s="69"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="63"/>
       <c r="J57" s="52"/>
       <c r="K57" s="53"/>
-      <c r="L57" s="52"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="56"/>
-      <c r="U57" s="56"/>
+      <c r="L57" s="59"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
       <c r="V57" s="40"/>
       <c r="W57" s="39"/>
-      <c r="X57" s="185"/>
+      <c r="X57" s="52"/>
       <c r="Y57" s="51"/>
       <c r="Z57" s="47"/>
       <c r="AB57" s="41"/>
     </row>
     <row r="58" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="63"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="52"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="A58" s="69"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="59"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
       <c r="J58" s="52"/>
       <c r="K58" s="53"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="56"/>
-      <c r="U58" s="56"/>
+      <c r="L58" s="59"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="61"/>
+      <c r="O58" s="61"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="54"/>
+      <c r="U58" s="54"/>
       <c r="V58" s="40"/>
       <c r="W58" s="39"/>
-      <c r="X58" s="185"/>
+      <c r="X58" s="52"/>
       <c r="Y58" s="51"/>
       <c r="Z58" s="47"/>
       <c r="AB58" s="41"/>
     </row>
     <row r="59" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="63"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="58"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="59"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="63"/>
       <c r="J59" s="52"/>
       <c r="K59" s="53"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="56"/>
+      <c r="L59" s="59"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
       <c r="V59" s="40"/>
       <c r="W59" s="39"/>
-      <c r="X59" s="185"/>
+      <c r="X59" s="52"/>
       <c r="Y59" s="51"/>
       <c r="Z59" s="47"/>
       <c r="AB59" s="41"/>
     </row>
     <row r="60" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="63"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="63"/>
       <c r="J60" s="52"/>
       <c r="K60" s="53"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
-      <c r="U60" s="56"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="54"/>
+      <c r="U60" s="54"/>
       <c r="V60" s="40"/>
       <c r="W60" s="39"/>
-      <c r="X60" s="185"/>
+      <c r="X60" s="52"/>
       <c r="Y60" s="51"/>
       <c r="Z60" s="47"/>
       <c r="AB60" s="41"/>
     </row>
     <row r="61" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="63"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="52"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
       <c r="J61" s="52"/>
       <c r="K61" s="53"/>
-      <c r="L61" s="52"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="56"/>
-      <c r="U61" s="56"/>
+      <c r="L61" s="59"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
       <c r="V61" s="40"/>
       <c r="W61" s="39"/>
-      <c r="X61" s="185"/>
+      <c r="X61" s="52"/>
       <c r="Y61" s="51"/>
       <c r="Z61" s="47"/>
       <c r="AB61" s="41"/>
     </row>
     <row r="62" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="63"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
       <c r="J62" s="52"/>
       <c r="K62" s="53"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="56"/>
-      <c r="U62" s="56"/>
+      <c r="L62" s="59"/>
+      <c r="M62" s="60"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="54"/>
+      <c r="U62" s="54"/>
       <c r="V62" s="40"/>
       <c r="W62" s="39"/>
-      <c r="X62" s="185"/>
+      <c r="X62" s="52"/>
       <c r="Y62" s="51"/>
       <c r="Z62" s="47"/>
       <c r="AB62" s="41"/>
     </row>
     <row r="63" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="63"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="58"/>
-      <c r="D63" s="58"/>
-      <c r="E63" s="52"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="57"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
       <c r="J63" s="52"/>
       <c r="K63" s="53"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="56"/>
+      <c r="L63" s="59"/>
+      <c r="M63" s="60"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="54"/>
+      <c r="U63" s="54"/>
       <c r="V63" s="40"/>
       <c r="W63" s="39"/>
-      <c r="X63" s="185"/>
+      <c r="X63" s="52"/>
       <c r="Y63" s="51"/>
       <c r="Z63" s="47"/>
       <c r="AB63" s="41"/>
     </row>
     <row r="64" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="63"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63"/>
+      <c r="H64" s="63"/>
+      <c r="I64" s="63"/>
       <c r="J64" s="52"/>
       <c r="K64" s="53"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="56"/>
-      <c r="U64" s="56"/>
+      <c r="L64" s="59"/>
+      <c r="M64" s="60"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
       <c r="V64" s="40"/>
       <c r="W64" s="39"/>
-      <c r="X64" s="185"/>
+      <c r="X64" s="52"/>
       <c r="Y64" s="51"/>
       <c r="Z64" s="47"/>
       <c r="AB64" s="41"/>
     </row>
     <row r="65" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="63"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="57"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="63"/>
+      <c r="G65" s="63"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="52"/>
       <c r="K65" s="53"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="56"/>
-      <c r="U65" s="56"/>
+      <c r="L65" s="59"/>
+      <c r="M65" s="60"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
       <c r="V65" s="40"/>
       <c r="W65" s="39"/>
-      <c r="X65" s="185"/>
+      <c r="X65" s="52"/>
       <c r="Y65" s="51"/>
       <c r="Z65" s="47"/>
       <c r="AB65" s="41"/>
     </row>
     <row r="66" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="95"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+      <c r="I66" s="63"/>
       <c r="J66" s="52"/>
       <c r="K66" s="53"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="96"/>
-      <c r="O66" s="97"/>
-      <c r="P66" s="98"/>
-      <c r="Q66" s="99"/>
-      <c r="R66" s="98"/>
-      <c r="S66" s="99"/>
-      <c r="T66" s="100"/>
-      <c r="U66" s="101"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="60"/>
+      <c r="N66" s="102"/>
+      <c r="O66" s="103"/>
+      <c r="P66" s="104"/>
+      <c r="Q66" s="105"/>
+      <c r="R66" s="104"/>
+      <c r="S66" s="105"/>
+      <c r="T66" s="55"/>
+      <c r="U66" s="56"/>
       <c r="V66" s="40"/>
       <c r="W66" s="39"/>
-      <c r="X66" s="185"/>
+      <c r="X66" s="52"/>
       <c r="Y66" s="51"/>
       <c r="Z66" s="47"/>
       <c r="AB66" s="41"/>
     </row>
     <row r="67" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="63"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="52"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63"/>
+      <c r="I67" s="63"/>
       <c r="J67" s="52"/>
       <c r="K67" s="53"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="56"/>
-      <c r="U67" s="56"/>
+      <c r="L67" s="59"/>
+      <c r="M67" s="60"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
       <c r="V67" s="40"/>
       <c r="W67" s="39"/>
-      <c r="X67" s="185"/>
+      <c r="X67" s="52"/>
       <c r="Y67" s="51"/>
       <c r="Z67" s="47"/>
       <c r="AB67" s="41"/>
     </row>
     <row r="68" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="57"/>
-      <c r="G68" s="57"/>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="63"/>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
+      <c r="I68" s="63"/>
       <c r="J68" s="52"/>
       <c r="K68" s="53"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="56"/>
-      <c r="U68" s="56"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="60"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="54"/>
+      <c r="U68" s="54"/>
       <c r="V68" s="40"/>
       <c r="W68" s="39"/>
-      <c r="X68" s="185"/>
+      <c r="X68" s="52"/>
       <c r="Y68" s="51"/>
       <c r="Z68" s="47"/>
       <c r="AB68" s="41"/>
     </row>
     <row r="69" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
       <c r="J69" s="52"/>
       <c r="K69" s="53"/>
-      <c r="L69" s="52"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="56"/>
-      <c r="U69" s="56"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="60"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="54"/>
+      <c r="U69" s="54"/>
       <c r="V69" s="40"/>
       <c r="W69" s="39"/>
-      <c r="X69" s="185"/>
+      <c r="X69" s="52"/>
       <c r="Y69" s="51"/>
       <c r="Z69" s="47"/>
       <c r="AB69" s="41"/>
     </row>
     <row r="70" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="63"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="57"/>
-      <c r="G70" s="57"/>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
+      <c r="I70" s="63"/>
       <c r="J70" s="52"/>
       <c r="K70" s="53"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
+      <c r="L70" s="59"/>
+      <c r="M70" s="60"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
       <c r="V70" s="40"/>
       <c r="W70" s="39"/>
-      <c r="X70" s="185"/>
+      <c r="X70" s="52"/>
       <c r="Y70" s="51"/>
       <c r="Z70" s="47"/>
       <c r="AB70" s="41"/>
     </row>
     <row r="71" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="63"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="57"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
+      <c r="I71" s="63"/>
       <c r="J71" s="52"/>
       <c r="K71" s="53"/>
-      <c r="L71" s="52"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="56"/>
-      <c r="U71" s="56"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
       <c r="V71" s="40"/>
       <c r="W71" s="39"/>
-      <c r="X71" s="185"/>
+      <c r="X71" s="52"/>
       <c r="Y71" s="51"/>
       <c r="Z71" s="47"/>
       <c r="AB71" s="41"/>
     </row>
     <row r="72" spans="1:28" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="63"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="58"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="63"/>
+      <c r="G72" s="63"/>
+      <c r="H72" s="63"/>
+      <c r="I72" s="63"/>
       <c r="J72" s="52"/>
       <c r="K72" s="53"/>
-      <c r="L72" s="52"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="56"/>
-      <c r="U72" s="56"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
       <c r="V72" s="40"/>
       <c r="W72" s="39"/>
-      <c r="X72" s="185"/>
+      <c r="X72" s="52"/>
       <c r="Y72" s="51"/>
       <c r="Z72" s="47"/>
       <c r="AB72" s="41"/>
     </row>
     <row r="73" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="137" t="s">
-        <v>39</v>
-      </c>
-      <c r="B73" s="138"/>
-      <c r="C73" s="138"/>
-      <c r="D73" s="138"/>
-      <c r="E73" s="93"/>
-      <c r="F73" s="93"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="93"/>
-      <c r="I73" s="93"/>
-      <c r="J73" s="93"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="93"/>
-      <c r="M73" s="93"/>
-      <c r="N73" s="93"/>
-      <c r="O73" s="93"/>
-      <c r="P73" s="93"/>
-      <c r="Q73" s="93"/>
-      <c r="R73" s="93"/>
-      <c r="S73" s="93"/>
-      <c r="T73" s="93"/>
-      <c r="U73" s="93"/>
-      <c r="V73" s="93"/>
-      <c r="W73" s="93"/>
-      <c r="X73" s="93"/>
-      <c r="Y73" s="93"/>
-      <c r="Z73" s="94"/>
+      <c r="A73" s="146" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="147"/>
+      <c r="C73" s="147"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="99"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="99"/>
+      <c r="J73" s="99"/>
+      <c r="K73" s="99"/>
+      <c r="L73" s="99"/>
+      <c r="M73" s="99"/>
+      <c r="N73" s="99"/>
+      <c r="O73" s="99"/>
+      <c r="P73" s="99"/>
+      <c r="Q73" s="99"/>
+      <c r="R73" s="99"/>
+      <c r="S73" s="99"/>
+      <c r="T73" s="99"/>
+      <c r="U73" s="99"/>
+      <c r="V73" s="99"/>
+      <c r="W73" s="99"/>
+      <c r="X73" s="99"/>
+      <c r="Y73" s="99"/>
+      <c r="Z73" s="100"/>
     </row>
     <row r="74" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="75" spans="1:28" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
@@ -5000,14 +5041,14 @@
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
       <c r="N75" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O75" s="15"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
       <c r="R75" s="8"/>
       <c r="S75" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T75" s="16"/>
       <c r="U75" s="17"/>
@@ -5040,7 +5081,7 @@
     </row>
     <row r="77" spans="1:28" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="14" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
@@ -5054,14 +5095,14 @@
       <c r="L77" s="14"/>
       <c r="M77" s="11"/>
       <c r="N77" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O77" s="15"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
       <c r="S77" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T77" s="16"/>
       <c r="U77" s="17"/>
@@ -5099,17 +5140,17 @@
     </row>
     <row r="79" spans="1:28" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O79" s="15"/>
       <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
       <c r="S79" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T79" s="16"/>
     </row>
@@ -5123,17 +5164,17 @@
     </row>
     <row r="81" spans="1:26" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B81" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O81" s="15"/>
       <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
       <c r="S81" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T81" s="16"/>
     </row>
@@ -5146,34 +5187,34 @@
       <c r="S82" s="8"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B83" s="93"/>
-      <c r="C83" s="93"/>
-      <c r="D83" s="93"/>
-      <c r="E83" s="93"/>
-      <c r="F83" s="93"/>
-      <c r="G83" s="93"/>
-      <c r="H83" s="93"/>
-      <c r="I83" s="93"/>
-      <c r="J83" s="93"/>
-      <c r="K83" s="93"/>
-      <c r="L83" s="93"/>
-      <c r="M83" s="93"/>
-      <c r="N83" s="93"/>
-      <c r="O83" s="93"/>
-      <c r="P83" s="93"/>
-      <c r="Q83" s="93"/>
-      <c r="R83" s="93"/>
-      <c r="S83" s="93"/>
-      <c r="T83" s="93"/>
-      <c r="U83" s="93"/>
-      <c r="V83" s="93"/>
-      <c r="W83" s="93"/>
-      <c r="X83" s="93"/>
-      <c r="Y83" s="93"/>
-      <c r="Z83" s="94"/>
+      <c r="A83" s="98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="99"/>
+      <c r="C83" s="99"/>
+      <c r="D83" s="99"/>
+      <c r="E83" s="99"/>
+      <c r="F83" s="99"/>
+      <c r="G83" s="99"/>
+      <c r="H83" s="99"/>
+      <c r="I83" s="99"/>
+      <c r="J83" s="99"/>
+      <c r="K83" s="99"/>
+      <c r="L83" s="99"/>
+      <c r="M83" s="99"/>
+      <c r="N83" s="99"/>
+      <c r="O83" s="99"/>
+      <c r="P83" s="99"/>
+      <c r="Q83" s="99"/>
+      <c r="R83" s="99"/>
+      <c r="S83" s="99"/>
+      <c r="T83" s="99"/>
+      <c r="U83" s="99"/>
+      <c r="V83" s="99"/>
+      <c r="W83" s="99"/>
+      <c r="X83" s="99"/>
+      <c r="Y83" s="99"/>
+      <c r="Z83" s="100"/>
     </row>
     <row r="84" spans="1:26" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N84" s="8"/>
@@ -5184,64 +5225,64 @@
       <c r="S84" s="8"/>
     </row>
     <row r="85" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="135"/>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
-      <c r="F85" s="136"/>
-      <c r="H85" s="134" t="s">
+      <c r="A85" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="144"/>
+      <c r="C85" s="144"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="144"/>
+      <c r="F85" s="145"/>
+      <c r="H85" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" s="144"/>
+      <c r="J85" s="144"/>
+      <c r="K85" s="144"/>
+      <c r="L85" s="144"/>
+      <c r="M85" s="145"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="P85" s="144"/>
+      <c r="Q85" s="144"/>
+      <c r="R85" s="144"/>
+      <c r="S85" s="144"/>
+      <c r="T85" s="145"/>
+      <c r="V85" s="143" t="s">
         <v>137</v>
       </c>
-      <c r="I85" s="135"/>
-      <c r="J85" s="135"/>
-      <c r="K85" s="135"/>
-      <c r="L85" s="135"/>
-      <c r="M85" s="136"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="134" t="s">
-        <v>138</v>
-      </c>
-      <c r="P85" s="135"/>
-      <c r="Q85" s="135"/>
-      <c r="R85" s="135"/>
-      <c r="S85" s="135"/>
-      <c r="T85" s="136"/>
-      <c r="V85" s="134" t="s">
-        <v>140</v>
-      </c>
-      <c r="W85" s="135"/>
-      <c r="X85" s="135"/>
-      <c r="Y85" s="135"/>
-      <c r="Z85" s="136"/>
+      <c r="W85" s="144"/>
+      <c r="X85" s="144"/>
+      <c r="Y85" s="144"/>
+      <c r="Z85" s="145"/>
     </row>
     <row r="86" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="142"/>
-      <c r="B86" s="143"/>
-      <c r="C86" s="143"/>
-      <c r="D86" s="143"/>
-      <c r="E86" s="143"/>
-      <c r="F86" s="144"/>
-      <c r="H86" s="142"/>
-      <c r="I86" s="143"/>
-      <c r="J86" s="143"/>
-      <c r="K86" s="143"/>
-      <c r="L86" s="143"/>
-      <c r="M86" s="144"/>
+      <c r="A86" s="151"/>
+      <c r="B86" s="152"/>
+      <c r="C86" s="152"/>
+      <c r="D86" s="152"/>
+      <c r="E86" s="152"/>
+      <c r="F86" s="153"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="152"/>
+      <c r="J86" s="152"/>
+      <c r="K86" s="152"/>
+      <c r="L86" s="152"/>
+      <c r="M86" s="153"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="142"/>
-      <c r="P86" s="143"/>
-      <c r="Q86" s="143"/>
-      <c r="R86" s="143"/>
-      <c r="S86" s="143"/>
-      <c r="T86" s="144"/>
-      <c r="V86" s="142"/>
-      <c r="W86" s="143"/>
-      <c r="X86" s="143"/>
-      <c r="Y86" s="143"/>
-      <c r="Z86" s="144"/>
+      <c r="O86" s="151"/>
+      <c r="P86" s="152"/>
+      <c r="Q86" s="152"/>
+      <c r="R86" s="152"/>
+      <c r="S86" s="152"/>
+      <c r="T86" s="153"/>
+      <c r="V86" s="151"/>
+      <c r="W86" s="152"/>
+      <c r="X86" s="152"/>
+      <c r="Y86" s="152"/>
+      <c r="Z86" s="153"/>
     </row>
     <row r="87" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -5270,64 +5311,64 @@
       <c r="Z87" s="8"/>
     </row>
     <row r="88" spans="1:26" s="14" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="147" t="s">
-        <v>141</v>
-      </c>
-      <c r="B88" s="148"/>
-      <c r="C88" s="148"/>
-      <c r="D88" s="148"/>
-      <c r="E88" s="148"/>
-      <c r="F88" s="149"/>
-      <c r="H88" s="134" t="s">
+      <c r="A88" s="156" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="157"/>
+      <c r="C88" s="157"/>
+      <c r="D88" s="157"/>
+      <c r="E88" s="157"/>
+      <c r="F88" s="158"/>
+      <c r="H88" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="I88" s="144"/>
+      <c r="J88" s="144"/>
+      <c r="K88" s="144"/>
+      <c r="L88" s="144"/>
+      <c r="M88" s="145"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="156" t="s">
+        <v>142</v>
+      </c>
+      <c r="P88" s="157"/>
+      <c r="Q88" s="157"/>
+      <c r="R88" s="157"/>
+      <c r="S88" s="157"/>
+      <c r="T88" s="158"/>
+      <c r="V88" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="I88" s="135"/>
-      <c r="J88" s="135"/>
-      <c r="K88" s="135"/>
-      <c r="L88" s="135"/>
-      <c r="M88" s="136"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="147" t="s">
-        <v>146</v>
-      </c>
-      <c r="P88" s="148"/>
-      <c r="Q88" s="148"/>
-      <c r="R88" s="148"/>
-      <c r="S88" s="148"/>
-      <c r="T88" s="149"/>
-      <c r="V88" s="134" t="s">
-        <v>142</v>
-      </c>
-      <c r="W88" s="135"/>
-      <c r="X88" s="135"/>
-      <c r="Y88" s="135"/>
-      <c r="Z88" s="136"/>
+      <c r="W88" s="144"/>
+      <c r="X88" s="144"/>
+      <c r="Y88" s="144"/>
+      <c r="Z88" s="145"/>
     </row>
     <row r="89" spans="1:26" s="14" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="142"/>
-      <c r="B89" s="143"/>
-      <c r="C89" s="143"/>
-      <c r="D89" s="143"/>
-      <c r="E89" s="143"/>
-      <c r="F89" s="144"/>
-      <c r="H89" s="142"/>
-      <c r="I89" s="143"/>
-      <c r="J89" s="143"/>
-      <c r="K89" s="143"/>
-      <c r="L89" s="143"/>
-      <c r="M89" s="144"/>
+      <c r="A89" s="151"/>
+      <c r="B89" s="152"/>
+      <c r="C89" s="152"/>
+      <c r="D89" s="152"/>
+      <c r="E89" s="152"/>
+      <c r="F89" s="153"/>
+      <c r="H89" s="151"/>
+      <c r="I89" s="152"/>
+      <c r="J89" s="152"/>
+      <c r="K89" s="152"/>
+      <c r="L89" s="152"/>
+      <c r="M89" s="153"/>
       <c r="N89" s="8"/>
-      <c r="O89" s="142"/>
-      <c r="P89" s="143"/>
-      <c r="Q89" s="143"/>
-      <c r="R89" s="143"/>
-      <c r="S89" s="143"/>
-      <c r="T89" s="144"/>
-      <c r="V89" s="142"/>
-      <c r="W89" s="143"/>
-      <c r="X89" s="143"/>
-      <c r="Y89" s="143"/>
-      <c r="Z89" s="144"/>
+      <c r="O89" s="151"/>
+      <c r="P89" s="152"/>
+      <c r="Q89" s="152"/>
+      <c r="R89" s="152"/>
+      <c r="S89" s="152"/>
+      <c r="T89" s="153"/>
+      <c r="V89" s="151"/>
+      <c r="W89" s="152"/>
+      <c r="X89" s="152"/>
+      <c r="Y89" s="152"/>
+      <c r="Z89" s="153"/>
     </row>
     <row r="90" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -5356,68 +5397,68 @@
       <c r="Z90" s="8"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M91" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="N91" s="145"/>
-      <c r="O91" s="146"/>
-      <c r="P91" s="146"/>
-      <c r="Q91" s="146"/>
-      <c r="R91" s="146"/>
+      <c r="M91" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="N91" s="154"/>
+      <c r="O91" s="155"/>
+      <c r="P91" s="155"/>
+      <c r="Q91" s="155"/>
+      <c r="R91" s="155"/>
       <c r="S91" s="8"/>
       <c r="T91" s="17"/>
     </row>
     <row r="93" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="B93" s="93"/>
-      <c r="C93" s="93"/>
-      <c r="D93" s="93"/>
-      <c r="E93" s="93"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="93"/>
-      <c r="K93" s="93"/>
-      <c r="L93" s="93"/>
-      <c r="M93" s="93"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="93"/>
-      <c r="P93" s="93"/>
-      <c r="Q93" s="93"/>
-      <c r="R93" s="93"/>
-      <c r="S93" s="93"/>
-      <c r="T93" s="93"/>
-      <c r="U93" s="93"/>
-      <c r="V93" s="93"/>
-      <c r="W93" s="93"/>
-      <c r="X93" s="93"/>
-      <c r="Y93" s="93"/>
-      <c r="Z93" s="94"/>
+      <c r="A93" s="98" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="99"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="99"/>
+      <c r="E93" s="99"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="99"/>
+      <c r="H93" s="99"/>
+      <c r="I93" s="99"/>
+      <c r="J93" s="99"/>
+      <c r="K93" s="99"/>
+      <c r="L93" s="99"/>
+      <c r="M93" s="99"/>
+      <c r="N93" s="99"/>
+      <c r="O93" s="99"/>
+      <c r="P93" s="99"/>
+      <c r="Q93" s="99"/>
+      <c r="R93" s="99"/>
+      <c r="S93" s="99"/>
+      <c r="T93" s="99"/>
+      <c r="U93" s="99"/>
+      <c r="V93" s="99"/>
+      <c r="W93" s="99"/>
+      <c r="X93" s="99"/>
+      <c r="Y93" s="99"/>
+      <c r="Z93" s="100"/>
     </row>
     <row r="95" spans="1:26" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D95" s="64" t="s">
+      <c r="G95" s="70"/>
+      <c r="H95" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="64" t="s">
+      <c r="I95" s="70"/>
+      <c r="L95" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="I95" s="64"/>
-      <c r="L95" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
+      <c r="M95" s="71"/>
+      <c r="N95" s="71"/>
       <c r="O95" s="35"/>
       <c r="P95" s="35"/>
       <c r="Q95" s="35"/>
@@ -5428,24 +5469,22 @@
       <c r="Y116" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="368">
+  <mergeCells count="316">
+    <mergeCell ref="N10:N11"/>
     <mergeCell ref="A25:I25"/>
     <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:N25"/>
     <mergeCell ref="O25:Q25"/>
     <mergeCell ref="R25:U25"/>
     <mergeCell ref="V25:X25"/>
     <mergeCell ref="Y25:Z25"/>
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:Q23"/>
     <mergeCell ref="R23:U23"/>
     <mergeCell ref="V23:X23"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:N24"/>
     <mergeCell ref="O24:Q24"/>
     <mergeCell ref="R24:U24"/>
     <mergeCell ref="V24:X24"/>
@@ -5455,10 +5494,8 @@
     <mergeCell ref="Y21:Z21"/>
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:N22"/>
     <mergeCell ref="O22:Q22"/>
     <mergeCell ref="R22:U22"/>
     <mergeCell ref="V22:X22"/>
@@ -5468,7 +5505,6 @@
     <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="A17:I17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:Q17"/>
     <mergeCell ref="R17:U17"/>
     <mergeCell ref="V17:X17"/>
@@ -5477,14 +5513,12 @@
     <mergeCell ref="A27:Z27"/>
     <mergeCell ref="A18:I18"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="O18:Q18"/>
     <mergeCell ref="R18:U18"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="Y18:Z18"/>
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:N19"/>
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R19:U19"/>
     <mergeCell ref="V19:X19"/>
@@ -5495,11 +5529,9 @@
     <mergeCell ref="Y20:Z20"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:N21"/>
     <mergeCell ref="O21:Q21"/>
     <mergeCell ref="A26:I26"/>
     <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:N26"/>
     <mergeCell ref="O26:Q26"/>
     <mergeCell ref="R26:U26"/>
     <mergeCell ref="V26:X26"/>
@@ -5531,7 +5563,6 @@
     <mergeCell ref="Z51:Z52"/>
     <mergeCell ref="A83:Z83"/>
     <mergeCell ref="L54:M54"/>
-    <mergeCell ref="J54:K54"/>
     <mergeCell ref="N54:O54"/>
     <mergeCell ref="P54:Q54"/>
     <mergeCell ref="E54:I54"/>
@@ -5540,40 +5571,32 @@
     <mergeCell ref="R52:S52"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="R54:S54"/>
-    <mergeCell ref="T54:U54"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
     <mergeCell ref="P65:Q65"/>
     <mergeCell ref="R65:S65"/>
-    <mergeCell ref="T65:U65"/>
     <mergeCell ref="E65:I65"/>
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:Q12"/>
     <mergeCell ref="R12:U12"/>
     <mergeCell ref="V16:X16"/>
     <mergeCell ref="Y16:Z16"/>
     <mergeCell ref="A16:I16"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:N16"/>
     <mergeCell ref="O16:Q16"/>
     <mergeCell ref="R16:U16"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:Q13"/>
     <mergeCell ref="R13:U13"/>
     <mergeCell ref="V13:X13"/>
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="X4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:H5"/>
@@ -5587,13 +5610,11 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="A10:I11"/>
     <mergeCell ref="J10:L11"/>
-    <mergeCell ref="M10:N11"/>
     <mergeCell ref="O10:Q11"/>
     <mergeCell ref="R11:U11"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="F1:W2"/>
     <mergeCell ref="W51:W52"/>
-    <mergeCell ref="T51:U52"/>
     <mergeCell ref="V51:V52"/>
     <mergeCell ref="P52:Q52"/>
     <mergeCell ref="O4:R4"/>
@@ -5602,7 +5623,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:N14"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="O14:Q14"/>
     <mergeCell ref="R14:U14"/>
@@ -5610,14 +5630,8 @@
     <mergeCell ref="T50:Z50"/>
     <mergeCell ref="A51:D52"/>
     <mergeCell ref="E51:I52"/>
-    <mergeCell ref="J51:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="D31:Z31"/>
-    <mergeCell ref="D33:Z33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="X4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="N51:O52"/>
     <mergeCell ref="D45:Z45"/>
     <mergeCell ref="D46:E46"/>
@@ -5625,6 +5639,10 @@
     <mergeCell ref="D47:Z47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="F48:Z48"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="T51:T52"/>
     <mergeCell ref="X1:Z2"/>
     <mergeCell ref="V11:X11"/>
     <mergeCell ref="R10:X10"/>
@@ -5635,20 +5653,20 @@
     <mergeCell ref="A14:I14"/>
     <mergeCell ref="A93:Z93"/>
     <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
     <mergeCell ref="E67:I67"/>
     <mergeCell ref="A66:D66"/>
-    <mergeCell ref="J66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
     <mergeCell ref="P66:Q66"/>
     <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
     <mergeCell ref="E66:I66"/>
     <mergeCell ref="A65:D65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="T53:U53"/>
     <mergeCell ref="L51:M52"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="D31:Z31"/>
+    <mergeCell ref="D33:Z33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="H95:I95"/>
@@ -5669,116 +5687,86 @@
     <mergeCell ref="A39:Z39"/>
     <mergeCell ref="A68:D68"/>
     <mergeCell ref="A67:D67"/>
-    <mergeCell ref="J67:K67"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="N67:O67"/>
     <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="X51:Y51"/>
     <mergeCell ref="A64:D64"/>
-    <mergeCell ref="J64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
     <mergeCell ref="P64:Q64"/>
     <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
     <mergeCell ref="A63:D63"/>
-    <mergeCell ref="J63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
     <mergeCell ref="P63:Q63"/>
     <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
     <mergeCell ref="E63:I63"/>
     <mergeCell ref="E64:I64"/>
     <mergeCell ref="A62:D62"/>
-    <mergeCell ref="J62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
     <mergeCell ref="P62:Q62"/>
     <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
     <mergeCell ref="A61:D61"/>
-    <mergeCell ref="J61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
     <mergeCell ref="P61:Q61"/>
     <mergeCell ref="R61:S61"/>
-    <mergeCell ref="T61:U61"/>
     <mergeCell ref="E62:I62"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P60:Q60"/>
     <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
     <mergeCell ref="A59:D59"/>
-    <mergeCell ref="J59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="R59:S59"/>
-    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
     <mergeCell ref="A58:D58"/>
-    <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
     <mergeCell ref="P58:Q58"/>
     <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="J57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
     <mergeCell ref="P57:Q57"/>
     <mergeCell ref="R57:S57"/>
-    <mergeCell ref="T57:U57"/>
+    <mergeCell ref="P56:Q56"/>
     <mergeCell ref="R56:S56"/>
-    <mergeCell ref="T56:U56"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
     <mergeCell ref="P72:Q72"/>
     <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
     <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
     <mergeCell ref="P71:Q71"/>
     <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
     <mergeCell ref="E71:I71"/>
     <mergeCell ref="E72:I72"/>
     <mergeCell ref="A70:D70"/>
-    <mergeCell ref="J70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
     <mergeCell ref="P70:Q70"/>
     <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
     <mergeCell ref="A69:D69"/>
-    <mergeCell ref="J69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
     <mergeCell ref="P69:Q69"/>
     <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T69:U69"/>
     <mergeCell ref="E69:I69"/>
     <mergeCell ref="E70:I70"/>
-    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
     <mergeCell ref="P68:Q68"/>
     <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
     <mergeCell ref="E68:I68"/>
     <mergeCell ref="F32:Z32"/>
     <mergeCell ref="D42:E42"/>
@@ -5793,10 +5781,11 @@
     <mergeCell ref="E60:I60"/>
     <mergeCell ref="E61:I61"/>
     <mergeCell ref="A56:D56"/>
-    <mergeCell ref="J56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
   </mergeCells>
   <conditionalFormatting sqref="X4 Z4">
     <cfRule type="colorScale" priority="1">
@@ -5812,7 +5801,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.15748031496062992"/>
-  <pageSetup scale="47" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
+  <pageSetup scale="32" fitToHeight="0" orientation="landscape" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CNO CONTROLADO A LA IMPRESIÓN. Si desea consultar la versión actualizada de este documento, consulte siempre la página: https://pioneeres.sharepoint.com/, en el sistema de Gestión Documental.</oddFooter>
   </headerFooter>
@@ -5876,75 +5865,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="174"/>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="180" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="180"/>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="165"/>
+      <c r="A1" s="179"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="180"/>
+      <c r="E1" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="185"/>
+      <c r="R1" s="169"/>
+      <c r="S1" s="169"/>
+      <c r="T1" s="169"/>
+      <c r="U1" s="170"/>
     </row>
     <row r="2" spans="1:21" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="176"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
-      <c r="J2" s="181"/>
-      <c r="K2" s="181"/>
-      <c r="L2" s="181"/>
-      <c r="M2" s="181"/>
-      <c r="N2" s="181"/>
-      <c r="O2" s="181"/>
-      <c r="P2" s="181"/>
-      <c r="Q2" s="181"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="167"/>
+      <c r="A2" s="181"/>
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
+      <c r="I2" s="186"/>
+      <c r="J2" s="186"/>
+      <c r="K2" s="186"/>
+      <c r="L2" s="186"/>
+      <c r="M2" s="186"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="186"/>
+      <c r="P2" s="186"/>
+      <c r="Q2" s="186"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="172"/>
     </row>
     <row r="3" spans="1:21" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="178"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
-      <c r="K3" s="182"/>
-      <c r="L3" s="182"/>
-      <c r="M3" s="182"/>
-      <c r="N3" s="182"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="168"/>
-      <c r="S3" s="168"/>
-      <c r="T3" s="168"/>
-      <c r="U3" s="169"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="187"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="173"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="173"/>
+      <c r="U3" s="174"/>
     </row>
     <row r="4" spans="1:21" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
@@ -5993,31 +5982,31 @@
       <c r="U5" s="23"/>
     </row>
     <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="171" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="172" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172"/>
-      <c r="U6" s="173"/>
+      <c r="A6" s="176" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="177"/>
+      <c r="R6" s="177"/>
+      <c r="S6" s="177"/>
+      <c r="T6" s="177"/>
+      <c r="U6" s="178"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B7" s="43"/>
@@ -6041,175 +6030,175 @@
       <c r="T7" s="43"/>
     </row>
     <row r="8" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="170" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
+      <c r="B8" s="175" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="175"/>
+      <c r="S8" s="175"/>
+      <c r="T8" s="175"/>
       <c r="U8" s="42"/>
     </row>
     <row r="9" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="170"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
+      <c r="B9" s="175"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
     </row>
     <row r="10" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
+      <c r="B10" s="175"/>
+      <c r="C10" s="175"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
     </row>
     <row r="11" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="170"/>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
+      <c r="B11" s="175"/>
+      <c r="C11" s="175"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
     </row>
     <row r="12" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
+      <c r="B12" s="175"/>
+      <c r="C12" s="175"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
     </row>
     <row r="13" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
+      <c r="B13" s="175"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
     </row>
     <row r="14" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
     </row>
     <row r="15" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
     </row>
     <row r="16" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="43"/>
@@ -6233,166 +6222,166 @@
       <c r="T16" s="43"/>
     </row>
     <row r="17" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="171" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17" s="172" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="172"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="172"/>
-      <c r="M17" s="172"/>
-      <c r="N17" s="172"/>
-      <c r="O17" s="172"/>
-      <c r="P17" s="172"/>
-      <c r="Q17" s="172"/>
-      <c r="R17" s="172"/>
-      <c r="S17" s="172"/>
-      <c r="T17" s="172"/>
-      <c r="U17" s="173"/>
+      <c r="A17" s="176" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
+      <c r="U17" s="178"/>
     </row>
     <row r="18" spans="1:21" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="K18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:21" ht="21.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="21" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="18" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="168" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
+      <c r="M38" s="168"/>
+      <c r="N38" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163" t="s">
-        <v>119</v>
-      </c>
-      <c r="G38" s="163"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="163" t="s">
+      <c r="O38" s="168"/>
+      <c r="P38" s="168"/>
+      <c r="Q38" s="168"/>
+      <c r="R38" s="168" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="163"/>
-      <c r="L38" s="163"/>
-      <c r="M38" s="163"/>
-      <c r="N38" s="163" t="s">
-        <v>122</v>
-      </c>
-      <c r="O38" s="163"/>
-      <c r="P38" s="163"/>
-      <c r="Q38" s="163"/>
-      <c r="R38" s="163" t="s">
-        <v>123</v>
-      </c>
-      <c r="S38" s="163"/>
-      <c r="T38" s="163"/>
+      <c r="S38" s="168"/>
+      <c r="T38" s="168"/>
     </row>
     <row r="39" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="23"/>
@@ -6437,125 +6426,125 @@
       <c r="T40" s="23"/>
     </row>
     <row r="41" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="184"/>
-      <c r="B41" s="184"/>
-      <c r="C41" s="184"/>
-      <c r="D41" s="184"/>
-      <c r="E41" s="184"/>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="184"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="184"/>
-      <c r="K41" s="184"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="184"/>
-      <c r="O41" s="184"/>
-      <c r="P41" s="184"/>
-      <c r="Q41" s="184"/>
-      <c r="R41" s="184"/>
-      <c r="S41" s="184"/>
-      <c r="T41" s="184"/>
-      <c r="U41" s="184"/>
+      <c r="A41" s="189"/>
+      <c r="B41" s="189"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="189"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="189"/>
+      <c r="N41" s="189"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="189"/>
+      <c r="Q41" s="189"/>
+      <c r="R41" s="189"/>
+      <c r="S41" s="189"/>
+      <c r="T41" s="189"/>
+      <c r="U41" s="189"/>
     </row>
     <row r="42" spans="1:21" ht="123.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="183"/>
-      <c r="E42" s="183"/>
-      <c r="F42" s="183"/>
-      <c r="G42" s="183"/>
-      <c r="H42" s="183"/>
-      <c r="I42" s="183"/>
-      <c r="J42" s="183"/>
-      <c r="K42" s="183"/>
-      <c r="L42" s="183"/>
-      <c r="M42" s="183"/>
-      <c r="N42" s="183"/>
-      <c r="O42" s="183"/>
-      <c r="P42" s="183"/>
-      <c r="Q42" s="183"/>
-      <c r="R42" s="183"/>
-      <c r="S42" s="183"/>
-      <c r="T42" s="183"/>
+        <v>125</v>
+      </c>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="188"/>
+      <c r="J42" s="188"/>
+      <c r="K42" s="188"/>
+      <c r="L42" s="188"/>
+      <c r="M42" s="188"/>
+      <c r="N42" s="188"/>
+      <c r="O42" s="188"/>
+      <c r="P42" s="188"/>
+      <c r="Q42" s="188"/>
+      <c r="R42" s="188"/>
+      <c r="S42" s="188"/>
+      <c r="T42" s="188"/>
     </row>
     <row r="43" spans="1:21" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="44" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="171" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="172" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="172"/>
-      <c r="D44" s="172"/>
-      <c r="E44" s="172"/>
-      <c r="F44" s="172"/>
-      <c r="G44" s="172"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="172"/>
-      <c r="L44" s="172"/>
-      <c r="M44" s="172"/>
-      <c r="N44" s="172"/>
-      <c r="O44" s="172"/>
-      <c r="P44" s="172"/>
-      <c r="Q44" s="172"/>
-      <c r="R44" s="172"/>
-      <c r="S44" s="172"/>
-      <c r="T44" s="172"/>
-      <c r="U44" s="173"/>
+      <c r="A44" s="176" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="177"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="177"/>
+      <c r="M44" s="177"/>
+      <c r="N44" s="177"/>
+      <c r="O44" s="177"/>
+      <c r="P44" s="177"/>
+      <c r="Q44" s="177"/>
+      <c r="R44" s="177"/>
+      <c r="S44" s="177"/>
+      <c r="T44" s="177"/>
+      <c r="U44" s="178"/>
     </row>
     <row r="46" spans="1:21" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="170" t="s">
-        <v>124</v>
-      </c>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170"/>
-      <c r="M46" s="170"/>
-      <c r="N46" s="170"/>
-      <c r="O46" s="170"/>
-      <c r="P46" s="170"/>
-      <c r="Q46" s="170"/>
-      <c r="R46" s="170"/>
-      <c r="S46" s="170"/>
-      <c r="T46" s="170"/>
+      <c r="B46" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="175"/>
+      <c r="D46" s="175"/>
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
+      <c r="L46" s="175"/>
+      <c r="M46" s="175"/>
+      <c r="N46" s="175"/>
+      <c r="O46" s="175"/>
+      <c r="P46" s="175"/>
+      <c r="Q46" s="175"/>
+      <c r="R46" s="175"/>
+      <c r="S46" s="175"/>
+      <c r="T46" s="175"/>
     </row>
     <row r="47" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="170" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="170"/>
-      <c r="R47" s="170"/>
-      <c r="S47" s="170"/>
-      <c r="T47" s="170"/>
+      <c r="B47" s="175" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
+      <c r="L47" s="175"/>
+      <c r="M47" s="175"/>
+      <c r="N47" s="175"/>
+      <c r="O47" s="175"/>
+      <c r="P47" s="175"/>
+      <c r="Q47" s="175"/>
+      <c r="R47" s="175"/>
+      <c r="S47" s="175"/>
+      <c r="T47" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -6606,59 +6595,59 @@
   <sheetData>
     <row r="2" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C2" s="34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="34" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" s="27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="28"/>
     </row>
     <row r="4" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C5" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C6" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C7" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C8" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="31" t="s">
@@ -6667,20 +6656,20 @@
     </row>
     <row r="9" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C9" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C10" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="3:5" ht="15" x14ac:dyDescent="0.3">
@@ -6689,28 +6678,28 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C12" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C13" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="3:5" ht="15" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="28"/>
@@ -6720,44 +6709,44 @@
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="G20" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="3:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="C21" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F21" s="32" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="3:7" ht="66" x14ac:dyDescent="0.25">
       <c r="C22" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>100</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="23" spans="3:7" ht="92.4" x14ac:dyDescent="0.25">
@@ -6765,63 +6754,63 @@
         <v>8</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C24" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.25">
       <c r="G25" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C27" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C28" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C29" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C32" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
